--- a/formated_outputs/execution_log/crossdisc/qwen/qwen-智慧医疗系统.xlsx
+++ b/formated_outputs/execution_log/crossdisc/qwen/qwen-智慧医疗系统.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>task_name</t>
   </si>
@@ -47,481 +47,415 @@
     <t>Crew Manager</t>
   </si>
   <si>
+    <t xml:space="preserve">数学教授
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">生物学教授
 </t>
   </si>
   <si>
+    <t xml:space="preserve">地理学教授
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">物理学教授
 </t>
   </si>
   <si>
-    <t xml:space="preserve">地理学教授
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数学教授
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">化学教授
 </t>
   </si>
   <si>
-    <t>根据用户提出的问题：智慧医疗系统，提炼出其中核心的3-5个子问题。每个子问题应明确、具体，并适合由不同学科专家进行深入分析，子问题之间具备关联性，总共构成解决整个大问题的基础。</t>
+    <t>智慧医疗系统主要依赖哪些核心技术？这些技术在实际应用中面临哪些挑战？</t>
+  </si>
+  <si>
+    <t>根据智慧医疗系统的核心技术及其挑战，提炼出3-5个具体的子问题，并提供详细的背景信息。</t>
   </si>
   <si>
     <t xml:space="preserve">请委派一位学科专家，根据用户提出的问题：智慧医疗系统，提炼出其中核心的3-5个子问题，用中文回答。 每个子问题应明确、具体，并适合由不同学科专家进行深入分析，子问题之间具备关联性，总共构成解决整个大问题的基础。
 </t>
   </si>
   <si>
-    <t>如何利用机器学习技术提高疾病诊断的准确性和效率？</t>
-  </si>
-  <si>
-    <t>自然语言处理技术在医疗文献分析中的应用及其对临床决策的辅助作用是什么？</t>
-  </si>
-  <si>
-    <t>如何通过基因组学数据的分析，为个性化医疗提供更精准的支持？</t>
-  </si>
-  <si>
-    <t>影像技术如何与人工智能结合，以提高疾病检测和治疗的效果？</t>
-  </si>
-  <si>
-    <t>如何优化医疗资源的地理分布，以提高医疗服务的可达性和公平性？</t>
+    <t>根据智慧医疗系统中数据量的剧增，探讨如何确保患者个人健康信息的安全。具体措施包括但不限于加密技术、访问控制机制、匿名化处理技术等，同时需要在满足数据共享需求的同时保护患者隐私。</t>
+  </si>
+  <si>
+    <t>分析智慧医疗系统中数据质量存在的问题（如缺失值、不一致性等），并探讨建立数据质量评估体系和标准化方案，同时考虑如何促进不同医疗信息系统之间的互操作性。</t>
+  </si>
+  <si>
+    <t>研究如何通过教育、培训等方式提高医生对AI等先进技术的认知和信任，以及如何设计更加人性化的交互界面以降低医生使用技术的门槛。此外，还需探讨医生在智慧医疗生态系统中的角色转变，从传统的治疗者向数据分析师的过渡。</t>
+  </si>
+  <si>
+    <t>从经济学角度出发，分析智慧医疗系统在不同应用情景下的成本效益比，探讨政府补贴、商业化运营等模式下的可持续发展策略，同时考虑如何通过技术创新降低整体成本。</t>
+  </si>
+  <si>
+    <t>探讨现行法律法规是否足以应对智慧医疗带来的新挑战，以及如何建立一套既保障患者权益又促进技术创新的伦理准则和法律框架。</t>
   </si>
   <si>
     <t xml:space="preserve">请不同的学科专家，基于所在学科的专业知识，选择高度相关的多个子问题，进行全面深入的分析和解决，用中文回答。 给出的解决方案应足够专业，尽量具体、具备逻辑性。要求每个学科专家都进行回答，并且所有专家回答的问题集合能覆盖所有子问题。 当前主问题为：智慧医疗系统
 </t>
   </si>
   <si>
-    <t>如何通过基因组学数据的分析，为个性化医疗提供更精准的支持？请从生物学的角度补充该子任务的解决方法，提供新的思维方式、潜在联系，突出您学科的独特贡献以及与已知视角之间的互补关系。</t>
-  </si>
-  <si>
-    <t>影像技术如何与人工智能结合，以提高疾病检测和治疗的效果？请从物理学的角度补充该子任务的解决方法，提供新的思维方式、潜在联系，突出您学科的独特贡献以及与已知视角之间的互补关系。</t>
-  </si>
-  <si>
-    <t>如何利用机器学习技术提高疾病诊断的准确性和效率？请从数学的角度补充该子任务的解决方法，提供新的思维方式、潜在联系，突出您学科的独特贡献以及与已知视角之间的互补关系。</t>
-  </si>
-  <si>
-    <t>如何通过化学分析，为智慧医疗系统提供新的检测方法和治疗手段？请从化学的角度补充该子任务的解决方法，提供新的思维方式、潜在联系，突出您学科的独特贡献以及与已知视角之间的互补关系。</t>
-  </si>
-  <si>
-    <t>如何优化医疗资源的地理分布，以提高医疗服务的可达性和公平性？请从地理学的角度补充该子任务的解决方法，提供新的思维方式、潜在联系，突出您学科的独特贡献以及与已知视角之间的互补关系。</t>
-  </si>
-  <si>
-    <t>自然语言处理技术在医疗文献分析中的应用及其对临床决策的辅助作用是什么？请从人工智能的角度补充该子任务的解决方法，提供新的思维方式、潜在联系，突出您学科的独特贡献以及与已知视角之间的互补关系。</t>
+    <t>从生物学角度分析智慧医疗系统如何利用生物信息学提高数据质量与标准化，并提出具体措施。</t>
+  </si>
+  <si>
+    <t>从物理学角度分析智慧医疗系统如何构建数据隐私与安全保护机制，特别是在物理安全和硬件层面的保护措施。</t>
+  </si>
+  <si>
+    <t>从数学角度分析智慧医疗系统中医生与技术融合的路径与策略，特别是如何通过数学模型和方法提高医生对新技术的接受度和使用情况。</t>
+  </si>
+  <si>
+    <t>从化学角度分析智慧医疗系统中医生与技术融合的路径与策略，特别是如何通过化学技术提高医生对新技术的接受度和使用情况。</t>
+  </si>
+  <si>
+    <t>从地理学角度分析智慧医疗系统中的成本效益分析及可持续发展策略，特别是如何通过地理学的方法优化医疗资源的分配和管理，提高系统的整体效能。</t>
   </si>
   <si>
     <t xml:space="preserve">请不同的学科专家，基于所在学科的专业知识，选择相关的多个子问题，从辅助学科的角度补充该子任务的解决方法，提供新的思维方式、潜在联系，用中文回答。 回答应突出你学科的独特贡献以及与已知视角之间的互补关系。 当前主问题为：智慧医疗系统
 </t>
   </si>
   <si>
-    <t>在基因组学数据的分析中，如何确保数据的质量和隐私保护？</t>
-  </si>
-  <si>
-    <t>在智慧医疗系统中，影像技术与人工智能的结合有哪些具体方法和挑战？</t>
-  </si>
-  <si>
-    <t>在智慧医疗系统中，如何利用机器学习技术提高疾病诊断的准确性和效率？</t>
-  </si>
-  <si>
-    <t>在智慧医疗系统中，如何通过化学分析提供新的检测方法和治疗手段？</t>
-  </si>
-  <si>
-    <t>在智慧医疗系统中，如何优化医疗资源的地理分布，提高医疗服务的可达性和公平性？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">请你整合所有子任务的小结与分析结果，构建一个系统性的、具备操作性的科学解决方案，最终撰写一份项目申请书，包括“摘要”、“研究背景和意义”、“研究内容”、 “拟解决的科学问题”、 “拟提出的技术路线”、“预期成果”，要求详细介绍“拟提出的技术路线”，技术路线应该对应上研究内容的每个点，要求体现专业性和综合性，用中文回答。 当前主问题为：智慧医疗系统
+    <t>整合所有子任务的小结与分析结果，构建一个系统性的、具备操作性的科学解决方案，并最终撰写一份项目申请书，包括“摘要”、“研究背景和意义”、“研究内容”、“拟解决的科学问题”、“拟提出的技术路线”、“预期成果”。技术路线应该对应上研究内容的每个点，要求体现专业性和综合性。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">请委派一位和课题最相关的学科专家，整合所有子任务的小结与分析结果，构建一个系统性的、具备操作性的科学解决方案，最终撰写一份项目申请书，包括“摘要”、“研究背景和意义”、“研究内容”、 “拟解决的科学问题”、 “拟提出的技术路线”、“预期成果”，要求详细介绍“拟提出的技术路线”，技术路线应该对应上研究内容的每个点，要求体现专业性和综合性，用中文回答。 当前主问题为：智慧医疗系统
 </t>
   </si>
   <si>
-    <t>根据智慧医疗系统这一核心主题，可以提炼出以下3-5个子问题，每个子问题都旨在促进跨学科合作，共同解决智慧医疗领域的挑战：
-1. **如何利用机器学习技术提高疾病诊断的准确性和效率？**
-   - 这个问题关注的是人工智能技术，特别是机器学习算法，在医疗诊断中的应用。它涉及如何从大量的医疗数据中提取有用信息，以支持医生做出更准确、快速的诊断。解决这一问题需要计算机科学、医学和数学专家的紧密合作。
-2. **自然语言处理技术在医疗文献分析中的应用及其对临床决策的辅助作用是什么？**
-   - 该问题探讨了自然语言处理（NLP）技术如何帮助医生和研究人员快速、准确地从海量的医疗文献中获取关键信息，从而支持临床决策和研究进展。这需要语言学、信息科学和医学领域的专家共同努力。
-3. **如何通过基因组学数据的分析，为个性化医疗提供更精准的支持？**
-   - 这个子问题聚焦于生物学和生物信息学领域，特别是基因组学数据的分析如何能够帮助实现个性化医疗，即根据患者的遗传信息来定制治疗方案。这不仅涉及到生物学家的工作，还需要统计学家和计算机科学家的支持。
-4. **影像技术如何与人工智能结合，以提高疾病检测和治疗的效果？**
-   - 该问题探讨了物理学中的影像技术和人工智能技术的结合如何能够改进疾病的检测和治疗。例如，使用深度学习算法来分析医学影像，以提高早期癌症检测的准确性。这需要物理学、计算机科学和医学专家的合作。
-5. **如何优化医疗资源的地理分布，以提高医疗服务的可达性和公平性？**
-   - 这个问题关注的是地理信息系统（GIS）和数据分析技术如何能够帮助优化医疗资源的分布，特别是在偏远地区或资源不足的社区。解决这一问题需要地理学家、数据科学家和社会政策专家的合作。
-这些问题不仅涵盖了智慧医疗系统的关键技术挑战，而且强调了跨学科合作的重要性，共同推动智慧医疗领域的发展。</t>
-  </si>
-  <si>
-    <t>1. **如何利用机器学习技术提高疾病诊断的准确性和效率？**
-   - 这个问题关注的是人工智能技术，特别是机器学习算法，在医疗诊断中的应用。它涉及如何从大量的医疗数据中提取有用信息，以支持医生做出更准确、快速的诊断。解决这一问题需要计算机科学、医学和数学专家的紧密合作。
-2. **自然语言处理技术在医疗文献分析中的应用及其对临床决策的辅助作用是什么？**
-   - 该问题探讨了自然语言处理（NLP）技术如何帮助医生和研究人员快速、准确地从海量的医疗文献中获取关键信息，从而支持临床决策和研究进展。这需要语言学、信息科学和医学领域的专家共同努力。
-3. **如何通过基因组学数据的分析，为个性化医疗提供更精准的支持？**
-   - 这个子问题聚焦于生物学和生物信息学领域，特别是基因组学数据的分析如何能够帮助实现个性化医疗，即根据患者的遗传信息来定制治疗方案。这不仅涉及到生物学家的工作，还需要统计学家和计算机科学家的支持。
-4. **影像技术如何与人工智能结合，以提高疾病检测和治疗的效果？**
-   - 该问题探讨了物理学中的影像技术和人工智能技术的结合如何能够改进疾病的检测和治疗。例如，使用深度学习算法来分析医学影像，以提高早期癌症检测的准确性。这需要物理学、计算机科学和医学专家的合作。
-5. **如何优化医疗资源的地理分布，以提高医疗服务的可达性和公平性？**
-   - 这个问题关注的是地理信息系统（GIS）和数据分析技术如何能够帮助优化医疗资源的分布，特别是在偏远地区或资源不足的社区。解决这一问题需要地理学家、数据科学家和社会政策专家的合作。
-这些问题不仅涵盖了智慧医疗系统的关键技术挑战，而且强调了跨学科合作的重要性，共同推动智慧医疗领域的发展。</t>
-  </si>
-  <si>
-    <t>利用机器学习技术提高疾病诊断的准确性和效率，可以从以下几个方面入手：
-1. 数据准备与处理：首先，需要收集大量的医疗数据，包括但不限于病人的病史、检查结果、基因信息等。这些数据需要经过预处理，如清洗、标准化、特征选择等，以确保数据的质量和可用性。此外，还需要对数据进行标注，即由专业的医生对数据进行诊断，作为机器学习模型训练的标签。
-2. 选择合适的机器学习算法：根据问题的性质和数据的特点，选择适合的机器学习算法。例如，对于图像识别问题，可以使用卷积神经网络（CNN）；对于序列数据预测问题，可以使用循环神经网络（RNN）或长短时记忆网络（LSTM）；对于分类问题，可以使用支持向量机（SVM）、随机森林（Random Forest）或梯度提升树（Gradient Boosting Trees）等算法。选择合适的算法对提高诊断准确性和效率至关重要。
-3. 模型训练与优化：使用准备好的数据集训练选定的机器学习模型。在训练过程中，需要不断调整模型参数，如学习率、正则化参数等，以提高模型的性能。同时，可以采用交叉验证等技术对模型进行评估，确保模型具有良好的泛化能力。此外，还可以通过集成学习（Ensemble Learning）等方法进一步提高模型的准确性。
-4. 模型部署与应用：将训练好的机器学习模型部署到实际的医疗环境中，如医院、诊所等，以辅助医生进行诊断。模型可以嵌入到电子病历系统、影像诊疗系统等医疗信息系统中，实时提供诊断建议。同时，需要建立反馈机制，将医生的诊断结果反馈给模型，以便模型持续学习和优化。
-5. 跨学科合作：解决医疗诊断中的问题，需要计算机科学、医学和数学等多个领域的专家紧密合作。计算机科学家负责算法的设计与实现，医学专家提供专业知识和数据支持，数学家负责理论分析与模型优化。通过跨学科合作，可以充分发挥各自的优势，共同推进医疗诊断技术的发展。
-总之，通过以上几个方面的努力，我们可以利用机器学习技术提高疾病诊断的准确性和效率，为患者提供更好的医疗服务。同时，这也为医疗领域的研究和发展提供了新的视角和方法。</t>
-  </si>
-  <si>
-    <t>自然语言处理技术在医疗文献分析中的应用及其对临床决策的辅助作用主要包括以下几个方面：
-1. **自动化文献摘要**：通过NLP技术，可以自动从大量的医疗文献中提取关键信息，生成摘要。这大大减少了医生和研究人员阅读和筛选文献的时间，使他们能够更快地获取到所需的信息。例如，使用文本摘要技术可以自动总结临床试验的结果、治疗方法的有效性和副作用等信息。
-2. **信息检索与推荐**：NLP技术可以提高医疗文献的检索效率和准确性。通过语义理解和上下文分析，系统能够理解用户的查询意图，提供更加精准的文献推荐。这不仅有助于医生在短时间内找到相关的研究资料，还能够帮助他们发现新的治疗方法和临床路径。
-3. **临床决策支持**：通过分析医疗文献，NLP技术可以为临床决策提供数据支持。例如，系统可以通过分析大量病例报告和研究结果，为医生提供最新的治疗指南、药物相互作用信息和疾病预后评估。这些信息对于制定个性化的治疗方案至关重要。
-4. **疾病监测与预警**：NLP技术可以用于从医疗文献中提取疾病爆发、流行趋势等信息，帮助公共卫生部门进行疾病监测和预警。这有助于及时采取防控措施，减少疾病传播。
-5. **医疗知识图谱构建**：通过NLP技术，可以从大量的医疗文献中自动抽取实体（如疾病、药物、症状等）和它们之间的关系，构建医疗知识图谱。这些知识图谱不仅支持了更深入的医学研究，还可以作为临床决策支持系统的知识库，提高决策的科学性和准确性。
-6. **电子病历自然语言处理**：自然语言处理技术也广泛应用于电子病历的分析，通过结构化电子病历中的非结构化文本信息，如医生的笔记、病患的主诉等，可以提取出有价值的医疗信息，辅助医生进行诊断和治疗。
-为了实现这些应用，NLP技术需要结合深度学习、机器学习等方法，不断优化算法以提高处理的准确性和效率。此外，跨学科的合作也是关键，语言学、信息科学和医学领域的专家需要共同努力，确保技术的有效性和实用性。通过这些努力，NLP技术不仅能够显著提高医疗文献分析的效率，还能够为临床决策提供有力支持，进而改善患者的治疗效果和生活质量。</t>
-  </si>
-  <si>
-    <t>通过基因组学数据的分析，为个性化医疗提供更精准的支持，是一个跨学科的任务，它要求我们不仅要深入理解生物医学的基础知识，还需要整合生物信息学、统计学和计算机科学的最新进展。以下是一些关键步骤和考虑因素，它们能够确保基因组学数据的有效分析并最终转化为临床应用：
-1. **数据收集与处理**：首先，需要收集高质量的基因组数据，这通常通过高通量测序技术来完成，例如全基因组测序（WGS）或全外显子组测序（WES）。随后，对原始数据进行预处理，包括质量控制、比对到参考基因组、变异检测等步骤。确保数据的准确性和完整性是后续分析的基础。
-2. **变异解释**：检测到的基因变异需要被解释，这包括确定变异的功能影响（如蛋白质编码改变、表达调控影响等）和其在疾病中的潜在作用。这一过程可能需要使用到公共数据库（如ClinVar、dbSNP）和生物信息学工具，以及功能预测软件（如SIFT、PolyPhen-2）。
-3. **疾病相关性分析**：将个体的基因组变异与已知的疾病相关性数据库进行比较，识别出可能与疾病发生发展有关的遗传变异。这一步骤对于理解疾病的遗传基础至关重要，也是制定个性化治疗方案的前提。
-4. **药物基因组学**：分析个体对特定药物的反应性，这包括药物代谢基因（如CYP450家族）的多态性，以及药物靶点基因的变异情况。药物基因组学研究有助于预测个体对不同药物的疗效和不良反应，从而实现药物治疗的个性化选择。
-5. **多组学数据整合**：除了基因组数据，还可以整合转录组、蛋白质组、代谢组等多层面的生物数据，以获得更全面的生物学视角。多组学分析有助于揭示疾病发生的分子机制，为开发新的治疗策略提供线索。
-6. **数据安全与隐私保护**：在收集和分析基因组数据的过程中，必须严格遵守相关的法律法规，确保患者信息的安全与隐私。这包括采用加密技术保护数据，以及建立严格的数据访问控制机制。
-7. **临床决策支持系统**：开发基于基因组学数据的决策支持工具，可以帮助医生根据患者的遗传信息来制定治疗计划。这些系统需要集成最新的科学发现和临床指南，提供个性化的治疗建议。
-8. **持续的研究与验证**：个性化医疗是一个不断发展和改进的领域，新的基因-疾病关联不断被发现，药物基因组学知识也在不断积累。因此，必须持续关注最新的研究成果，并对其进行严格的临床验证。
-通过上述步骤，我们可以利用基因组学数据为患者提供更精准的诊断和治疗方案，促进医疗向个性化、精准化方向发展。这不仅提高了治疗的有效性，也减少了不必要的医疗资源浪费，最终将极大地提高患者的生活质量。</t>
-  </si>
-  <si>
-    <t>影像技术与人工智能的结合在提高疾病检测和治疗的效果方面展现出了巨大的潜力。从物理学的角度来看，影像技术的提升不仅依赖于成像硬件的发展，还与成像理论的创新密切相关。例如，利用物理学原理优化图像重建算法，可以提高图像的质量和分辨率，这对于后续的人工智能分析至关重要。
-在实际应用中，深度学习等人工智能技术能够对大量医学影像数据进行高效分析，通过训练模型来识别特定疾病的特征模式，比如在早期癌症检测中，人工智能能够辅助医生更准确地识别出肿瘤或异常细胞。这种技术的应用不仅提高了检测的准确性，还能大幅缩短诊断时间，对于需要及时治疗的疾病来说尤为重要。
-此外，物理学与人工智能的结合还有助于开发新的治疗方案。例如，通过模拟药物在人体内的分布情况，可以更精准地指导药物剂量的选择，减少副作用；利用粒子物理原理设计的放射治疗方案，能够更精准地定位肿瘤，减少对周围健康组织的伤害。
-实现上述目标的关键是跨学科的合作。物理学家、计算机科学家和医学专家需要紧密合作，共同推进技术的发展。例如，在模型的训练过程中，物理学家可以提供对成像过程深入的理解，帮助优化算法；计算机科学家则专注于算法的设计和性能优化；而医学专家则提供临床知识，确保算法的有效性和安全性。
-总之，影像技术与人工智能的结合为疾病检测和治疗带来了革命性的变化，不仅提高了疾病的诊断率和治疗效果，还为未来的医疗技术发展提供了新方向。随着技术的不断进步和跨学科合作的加深，我们可以期待更多创新的应用出现在医学领域，最终造福患者。</t>
-  </si>
-  <si>
-    <t>优化医疗资源的地理分布，提高医疗服务的可达性和公平性，是一个涉及多方面考量的复杂问题。这不仅需要地理学家的专业知识，还需要数据科学家和社会政策专家的紧密合作。以下是一些基于地理信息系统（GIS）和数据分析技术，结合社会政策调整的方法，来优化医疗资源分布的具体策略：
-1. **需求评估与热点分析**：利用GIS技术，结合人口统计数据、疾病发病率、医院位置和交通网络等信息，进行医疗服务需求的评估和热点分析。通过识别医疗需求高且资源较少的地区，为决策者提供数据支持，以便于资源的有效分配。
-2. **时空分析与预测模型**：建立医疗服务供给与需求的时空分析模型，预测未来几年内不同地区医疗服务的变化趋势。这些预测可以帮助规划者提前做出反应，调整医疗设施和服务的布局，以适应人口增长、老龄化等社会变化。
-3. **多准则决策分析（MCDA）**：采用多准则决策分析方法，综合考虑地理位置、人口密度、交通可达性、现有医疗设施等因素，科学合理地规划新医疗机构的选址。这种方法可以确保新设施建设在最需要的地方，同时考虑到成本效益和社会影响。
-4. **移动医疗服务**：对于偏远或交通不便的地区，开发移动医疗服务是非常有效的解决方案。通过配备有基本诊疗设备的移动医疗车，定期为这些地区的居民提供服务，可以大大改善这些区域的医疗可达性。
-5. **社区医疗与远程医疗**：加强社区医疗中心的建设和功能，使其成为居民日常医疗保健的重要场所。同时，利用互联网技术，发展远程医疗服务，使患者能够通过视频会议等方式与医生交流，减少就医的物理障碍。
-6. **政策支持与公众参与**：政府应出台相应的政策，为优化医疗资源分布提供支持，包括资金投入、人才培养和技术创新等。同时，鼓励公众参与医疗服务规划，确保资源分配更加贴近民众需求。
-7. **跨学科合作**：建立跨学科的合作机制，包括地理学、医学、公共卫生、社会学等多个领域的专家共同参与，从多个角度分析问题，提出综合性的解决方案。
-通过上述措施的实施，可以有效地优化医疗资源的地理分布，提高医疗服务的可达性和公平性，从而改善人民的健康状况和生活质量。这不仅是技术层面的挑战，也是社会治理能力的体现。</t>
-  </si>
-  <si>
-    <t>### 智慧医疗系统的多学科视角分析
-#### 1. 如何利用机器学习技术提高疾病诊断的准确性和效率？
-利用机器学习技术提高疾病诊断的准确性和效率，可以从以下几个方面入手：
-1. **数据准备与处理**：首先，需要收集大量的医疗数据，包括但不限于病人的病史、检查结果、基因信息等。这些数据需要经过预处理，如清洗、标准化、特征选择等，以确保数据的质量和可用性。此外，还需要对数据进行标注，即由专业的医生对数据进行诊断，作为机器学习模型训练的标签。
-2. **选择合适的机器学习算法**：根据问题的性质和数据的特点，选择适合的机器学习算法。例如，对于图像识别问题，可以使用卷积神经网络（CNN）；对于序列数据预测问题，可以使用循环神经网络（RNN）或长短时记忆网络（LSTM）；对于分类问题，可以使用支持向量机（SVM）、随机森林（Random Forest）或梯度提升树（Gradient Boosting Trees）等算法。选择合适的算法对提高诊断准确性和效率至关重要。
-3. **模型训练与优化**：使用准备好的数据集训练选定的机器学习模型。在训练过程中，需要不断调整模型参数，如学习率、正则化参数等，以提高模型的性能。同时，可以采用交叉验证等技术对模型进行评估，确保模型具有良好的泛化能力。此外，还可以通过集成学习（Ensemble Learning）等方法进一步提高模型的准确性。
-4. **模型部署与应用**：将训练好的机器学习模型部署到实际的医疗环境中，如医院、诊所等，以辅助医生进行诊断。模型可以嵌入到电子病历系统、影像诊疗系统等医疗信息系统中，实时提供诊断建议。同时，需要建立反馈机制，将医生的诊断结果反馈给模型，以便模型持续学习和优化。
-5. **跨学科合作**：解决医疗诊断中的问题，需要计算机科学、医学和数学等多个领域的专家紧密合作。计算机科学家负责算法的设计与实现，医学专家提供专业知识和数据支持，数学家负责理论分析与模型优化。通过跨学科合作，可以充分发挥各自的优势，共同推进医疗诊断技术的发展。
-总之，通过以上几个方面的努力，我们可以利用机器学习技术提高疾病诊断的准确性和效率，为患者提供更好的医疗服务。同时，这也为医疗领域的研究和发展提供了新的视角和方法。
-#### 2. 自然语言处理技术在医疗文献分析中的应用及其对临床决策的辅助作用是什么？
-自然语言处理技术在医疗文献分析中的应用及其对临床决策的辅助作用主要包括以下几个方面：
-1. **自动化文献摘要**：通过NLP技术，可以自动从大量的医疗文献中提取关键信息，生成摘要。这大大减少了医生和研究人员阅读和筛选文献的时间，使他们能够更快地获取到所需的信息。例如，使用文本摘要技术可以自动总结临床试验的结果、治疗方法的有效性和副作用等信息。
-2. **信息检索与推荐**：NLP技术可以提高医疗文献的检索效率和准确性。通过语义理解和上下文分析，系统能够理解用户的查询意图，提供更加精准的文献推荐。这不仅有助于医生在短时间内找到相关的研究资料，还能够帮助他们发现新的治疗方法和临床路径。
-3. **临床决策支持**：通过分析医疗文献，NLP技术可以为临床决策提供数据支持。例如，系统可以通过分析大量病例报告和研究结果，为医生提供最新的治疗指南、药物相互作用信息和疾病预后评估。这些信息对于制定个性化的治疗方案至关重要。
-4. **疾病监测与预警**：NLP技术可以用于从医疗文献中提取疾病爆发、流行趋势等信息，帮助公共卫生部门进行疾病监测和预警。这有助于及时采取防控措施，减少疾病传播。
-5. **医疗知识图谱构建**：通过NLP技术，可以从大量的医疗文献中自动抽取实体（如疾病、药物、症状等）和它们之间的关系，构建医疗知识图谱。这些知识图谱不仅支持了更深入的医学研究，还可以作为临床决策支持系统的知识库，提高决策的科学性和准确性。
-6. **电子病历自然语言处理**：自然语言处理技术也广泛应用于电子病历的分析，通过结构化电子病历中的非结构化文本信息，如医生的笔记、病患的主诉等，可以提取出有价值的医疗信息，辅助医生进行诊断和治疗。
-为了实现这些应用，NLP技术需要结合深度学习、机器学习等方法，不断优化算法以提高处理的准确性和效率。此外，跨学科的合作也是关键，语言学、信息科学和医学领域的专家需要共同努力，确保技术的有效性和实用性。通过这些努力，NLP技术不仅能够显著提高医疗文献分析的效率，还能够为临床决策提供有力支持，进而改善患者的治疗效果和生活质量。
-#### 3. 如何通过基因组学数据的分析，为个性化医疗提供更精准的支持？
-通过基因组学数据的分析，为个性化医疗提供更精准的支持，是一个跨学科的任务，它要求我们不仅要深入理解生物医学的基础知识，还需要整合生物信息学、统计学和计算机科学的最新进展。以下是一些关键步骤和考虑因素，它们能够确保基因组学数据的有效分析并最终转化为临床应用：
-1. **数据收集与处理**：首先，需要收集高质量的基因组数据，这通常通过高通量测序技术来完成，例如全基因组测序（WGS）或全外显子组测序（WES）。随后，对原始数据进行预处理，包括质量控制、比对到参考基因组、变异检测等步骤。确保数据的准确性和完整性是后续分析的基础。
-2. **变异解释**：检测到的基因变异需要被解释，这包括确定变异的功能影响（如蛋白质编码改变、表达调控影响等）和其在疾病中的潜在作用。这一过程可能需要使用到公共数据库（如ClinVar、dbSNP）和生物信息学工具，以及功能预测软件（如SIFT、PolyPhen-2）。
-3. **疾病相关性分析**：将个体的基因组变异与已知的疾病相关性数据库进行比较，识别出可能与疾病发生发展有关的遗传变异。这一步骤对于理解疾病的遗传基础至关重要，也是制定个性化治疗方案的前提。
-4. **药物基因组学**：分析个体对特定药物的反应性，这包括药物代谢基因（如CYP450家族）的多态性，以及药物靶点基因的变异情况。药物基因组学研究有助于预测个体对不同药物的疗效和不良反应，从而实现药物治疗的个性化选择。
-5. **多组学数据整合**：除了基因组数据，还可以整合转录组、蛋白质组、代谢组等多层面的生物数据，以获得更全面的生物学视角。多组学分析有助于揭示疾病发生的分子机制，为开发新的治疗策略提供线索。
-6. **数据安全与隐私保护**：在收集和分析基因组数据的过程中，必须严格遵守相关的法律法规，确保患者信息的安全与隐私。这包括采用加密技术保护数据，以及建立严格的数据访问控制机制。
-7. **临床决策支持系统**：开发基于基因组学数据的决策支持工具，可以帮助医生根据患者的遗传信息来制定治疗计划。这些系统需要集成最新的科学发现和临床指南，提供个性化的治疗建议。
-8. **持续的研究与验证**：个性化医疗是一个不断发展和改进的领域，新的基因-疾病关联不断被发现，药物基因组学知识也在不断积累。因此，必须持续关注最新的研究成果，并对其进行严格的临床验证。
-通过上述步骤，我们可以利用基因组学数据为患者提供更精准的诊断和治疗方案，促进医疗向个性化、精准化方向发展。这不仅提高了治疗的有效性，也减少了不必要的医疗资源浪费，最终将极大地提高患者的生活质量。
-#### 4. 影像技术如何与人工智能结合，以提高疾病检测和治疗的效果？
-影像技术与人工智能的结合在提高疾病检测和治疗的效果方面展现出了巨大的潜力。从物理学的角度来看，影像技术的提升不仅依赖于成像硬件的发展，还与成像理论的创新密切相关。例如，利用物理学原理优化图像重建算法，可以提高图像的质量和分辨率，这对于后续的人工智能分析至关重要。
-在实际应用中，深度学习等人工智能技术能够对大量医学影像数据进行高效分析，通过训练模型来识别特定疾病的特征模式，比如在早期癌症检测中，人工智能能够辅助医生更准确地识别出肿瘤或异常细胞。这种技术的应用不仅提高了检测的准确性，还能大幅缩短诊断时间，对于需要及时治疗的疾病来说尤为重要。
-此外，物理学与人工智能的结合还有助于开发新的治疗方案。例如，通过模拟药物在人体内的分布情况，可以更精准地指导药物剂量的选择，减少副作用；利用粒子物理原理设计的放射治疗方案，能够更精准地定位肿瘤，减少对周围健康组织的伤害。
-实现上述目标的关键是跨学科的合作。物理学家、计算机科学家和医学专家需要紧密合作，共同推进技术的发展。例如，在模型的训练过程中，物理学家可以提供对成像过程深入的理解，帮助优化算法；计算机科学家则专注于算法的设计和性能优化；而医学专家则提供临床知识，确保算法的有效性和安全性。
-总之，影像技术与人工智能的结合为疾病检测和治疗带来了革命性的变化，不仅提高了疾病的诊断率和治疗效果，还为未来的医疗技术发展提供了新方向。随着技术的不断进步和跨学科合作的加深，我们可以期待更多创新的应用出现在医学领域，最终造福患者。
-#### 5. 如何优化医疗资源的地理分布，以提高医疗服务的可达性和公平性？
-优化医疗资源的地理分布，提高医疗服务的可达性和公平性，是一个涉及多方面考量的复杂问题。这不仅需要地理学家的专业知识，还需要数据科学家和社会政策专家的紧密合作。以下是一些基于地理信息系统（GIS）和数据分析技术，结合社会政策调整的方法，来优化医疗资源分布的具体策略：
-1. **需求评估与热点分析**：利用GIS技术，结合人口统计数据、疾病发病率、医院位置和交通网络等信息，进行医疗服务需求的评估和热点分析。通过识别医疗需求高且资源较少的地区，为决策者提供数据支持，以便于资源的有效分配。
-2. **时空分析与预测模型**：建立医疗服务供给与需求的时空分析模型，预测未来几年内不同地区医疗服务的变化趋势。这些预测可以帮助规划者提前做出反应，调整医疗设施和服务的布局，以适应人口增长、老龄化等社会变化。
-3. **多准则决策分析（MCDA）**：采用多准则决策分析方法，综合考虑地理位置、人口密度、交通可达性、现有医疗设施等因素，科学合理地规划新医疗机构的选址。这种方法可以确保新设施建设在最需要的地方，同时考虑到成本效益和社会影响。
-4. **移动医疗服务**：对于偏远或交通不便的地区，开发移动医疗服务是非常有效的解决方案。通过配备有基本诊疗设备的移动医疗车，定期为这些地区的居民提供服务，可以大大改善这些区域的医疗可达性。
-5. **社区医疗与远程医疗**：加强社区医疗中心的建设和功能，使其成为居民日常医疗保健的重要场所。同时，利用互联网技术，发展远程医疗服务，使患者能够通过视频会议等方式与医生交流，减少就医的物理障碍。
-6. **政策支持与公众参与**：政府应出台相应的政策，为优化医疗资源分布提供支持，包括资金投入、人才培养和技术创新等。同时，鼓励公众参与医疗服务规划，确保资源分配更加贴近民众需求。
-7. **跨学科合作**：建立跨学科的合作机制，包括地理学、医学、公共卫生、社会学等多个领域的专家共同参与，从多个角度分析问题，提出综合性的解决方案。
-通过上述措施的实施，可以有效地优化医疗资源的地理分布，提高医疗服务的可达性和公平性，从而改善人民的健康状况和生活质量。这不仅是技术层面的挑战，也是社会治理能力的体现。
-通过这些多学科视角的分析和综合解决方案，智慧医疗系统能够更好地应对医疗领域的挑战，实现更高效、更精准、更公平的医疗服务，最终造福广大患者和社会。</t>
-  </si>
-  <si>
-    <t>在智慧医疗系统中，基因组学数据的分析对于个性化医疗的支持至关重要。作为生物学领域的专家，我将从以下几个方面补充解决方法，提供新的思维方式、潜在联系，突出我学科的独特贡献以及与已知视角之间的互补关系。
-1. **数据收集与处理的生物学视角**：在收集和处理基因组学数据时，必须考虑到样本的质量控制，包括样本的来源、存储条件、提取方法等，这些因素都可能影响到数据的质量。此外，还需要关注基因组数据的标准化，以便于不同来源的数据能够互相比较和整合。生物学的专业知识可以帮助更好地理解这些影响因素，从而确保数据的准确性和可靠性。
-2. **变异解释的深度挖掘**：在基因组学数据中，存在大量的变异信息。从生物学的角度出发，对这些变异进行解释时，不仅需要考虑单个变异的影响，还要考虑多个变异之间的相互作用，以及这些变异如何影响生物体的基因表达、蛋白质结构和功能等。通过功能基因组学和系统生物学的方法，可以构建基因-表型关联模型，更精确地预测个体对特定疾病的风险以及对治疗的反应。
-3. **疾病相关性分析的生物网络视角**：在分析基因组学数据与疾病之间的关联时，采用生物网络的方法可以揭示基因、蛋白质、代谢物等分子之间的复杂相互作用网络，这对于理解疾病发生的分子机制至关重要。此外，通过整合多组学数据（如转录组、蛋白质组、代谢组等），可以更全面地解析疾病状态下的生物系统变化。
-4. **药物基因组学的精准治疗方案**：基于个体的基因组信息来选择最适合的药物和剂量，是实现个性化医疗的重要途径。生物学对于药物作用机制的理解，能够帮助识别药物靶点，预测药物疗效，以及发现可能的副作用。通过药物基因组学的研究，可以为医生提供更为精准的治疗建议，减少试错成本，提高治疗效果。
-5. **数据安全与隐私保护的伦理考量**：在处理和分析基因组学数据时，必须严格遵守医学伦理和法律法规，保护患者的隐私。生物学领域的专家可以与法律、伦理学专家合作，确保数据的使用不仅科学而且合乎道德，促进公众对个性化医疗的信任和支持。
-6. **临床决策支持系统的构建**：为了使基因组学数据能够更好地服务于临床决策，需要开发智能化的决策支持系统。这些系统应当能够整合多源数据，包括遗传信息、临床信息、生活方式等，通过机器学习等技术提供个性化的治疗建议。生物学家可以与计算机科学家合作，确保系统的设计符合生物学原理，提高预测的准确性。
-7. **持续的研究与验证**：个性化医疗的发展是一个不断进步的过程，需要持续的研究和验证来确保新发现的有效性和安全性。生物学家可以引领多学科团队，进行临床试验和观察研究，验证基于基因组学数据的个性化治疗方案的效果，推动个性化医疗从理论走向实践。
-综上所述，生物学在基因组学数据的分析中扮演着不可或缺的角色，不仅为个性化医疗提供了坚实的科学基础，还促进了多学科间的合作，共同推动了医疗健康领域的发展。</t>
-  </si>
-  <si>
-    <t>影像技术与人工智能的结合在提高疾病检测和治疗的效果方面，从物理学的角度出发，可以视为一个信息获取、处理和利用的过程。物理学的贡献在于，它提供了一套严谨的理论框架和方法论，以优化信息的获取和处理，从而确保人工智能能够基于最准确、最丰富的数据集进行学习和决策。以下是几种可能的结合方式及其潜在的物理原理：
-1. **优化成像硬件**：物理学原理在成像硬件的设计中起到了关键作用。例如，通过调整电磁波的发射频率和强度，利用共振原理，可以在核磁共振成像（MRI）中获得更高质量的图像。此外，通过改进X射线的探测器材料和结构，可以减少散射光的影响，提高CT扫描的对比度和分辨率。
-2. **图像重建算法的创新**：基于物理学的成像模型，可以开发出更有效的图像重建算法。例如，利用逆散射理论可以解决超声图像中的声波散射问题，提高图像质量。在PET（正电子发射断层扫描）中，通过优化伽马光子的追踪算法，可以减少图像中的噪声，提高诊断的准确性。
-3. **多模态成像技术**：物理学有助于整合多种成像技术，形成多模态成像系统。例如，结合MRI和PET可以同时获得生物组织的功能信息和结构信息，为疾病的综合评估提供更为全面的视角。这种技术的实现需要对不同物理信号之间的相互作用有深刻的理解。
-4. **物理模型与机器学习的结合**：将基于物理的模型与机器学习算法相结合，可以在训练模型时提供先验知识，帮助模型更好地理解数据背后的物理过程。例如，在基于深度学习的图像重建中，可以将物理定律作为正则化项加入到损失函数中，帮助模型在学习过程中保持物理一致性。
-5. **提高诊断效率与准确性**：通过物理学原理指导下的成像技术与人工智能算法的优化，可以提高疾病的早期检测率，减少误诊和漏诊的可能性。同时，对于治疗方案的制定，基于物理学的模型可以帮助预测治疗效果，为个性化治疗提供依据。
-6. **治疗过程的物理优化**：在放射治疗中，利用物理学原理可以优化射线的分布，减少对健康组织的损伤，提高治疗的精准度。例如，通过蒙特卡洛模拟可以精确计算射线在人体内的传播路径，为治疗计划提供支持。
-综上所述，物理学不仅在影像技术的硬件和软件层面上提供了基础支持，而且在与人工智能结合的过程中，通过优化信息获取和处理的方式，为提高疾病检测和治疗的效果提供了独特的视角和方法。这些工作不仅能够促进医疗技术的发展，还能够推动物理学与其他学科的交叉融合，为未来医疗技术的创新开辟新的道路。</t>
-  </si>
-  <si>
-    <t>利用机器学习技术提高疾病诊断的准确性和效率是一个跨学科的研究领域，其中数学理论和技术发挥着核心作用。数学不仅提供了数据处理和算法设计的工具，还为理解模型行为、提高模型性能以及确保模型的可解释性和稳健性提供了理论基础。以下是从数学角度对这一任务的补充解决方法，提供新的思维方式和潜在联系，并突出数学学科的独特贡献以及与已知视角之间的互补关系。
-1. **数据准备与处理**：
-   - **数据清洗**：使用统计方法识别和处理异常值和缺失值，确保数据质量。例如，通过计算均值、中位数或众数来填补缺失值，使用标准差或四分位数间距来识别和处理异常值。
-   - **特征工程**：基于领域知识和数学工具（如主成分分析PCA、独立成分分析ICA）进行特征提取和降维，以便于机器学习模型的学习和泛化能力。
-   - **数据标准化**：通过Z-score标准化、最小-最大标准化等方法，使不同量纲的数据具有可比性，提高模型训练的稳定性。
-2. **选择合适的机器学习算法**：
-   - **算法选择**：根据问题的性质选择合适的算法。例如，对于分类问题，可以考虑使用支持向量机（SVM）、决策树、随机森林等；对于回归问题，可以考虑线性回归、岭回归、LASSO回归等。
-   - **模型评估**：使用交叉验证等方法评估模型的泛化能力，确保模型在未见数据上的表现。此外，通过AUC-ROC曲线、F1分数、准确率、召回率等指标来综合评估模型性能。
-3. **模型训练与优化**：
-   - **参数优化**：利用梯度下降法、随机梯度下降法、遗传算法等优化方法，寻找模型的最佳参数，提高模型的预测准确性。
-   - **正则化技术**：引入L1正则化、L2正则化等方法，防止模型过拟合，提高模型的泛化能力。
-   - **集成学习**：通过Bagging、Boosting等集成学习方法，结合多个弱学习器形成强学习器，提高模型的稳定性和预测能力。
-4. **模型部署与应用**：
-   - **模型解释**：使用Shapley值、LIME（局部可解释模型的解释）等数学工具，解释模型的预测结果，提高模型的透明度和可解释性，使医生和患者更容易理解模型的决策过程。
-   - **实时优化**：在实际应用中，利用在线学习等技术，使模型能够实时更新，适应数据的变化，提高模型的实用性和响应速度。
-5. **跨学科合作**：
-   - **数学与生物医学的结合**：在疾病诊断中，数学方法可以与生物医学知识相结合，例如，通过图论和网络分析研究疾病在不同人群中的传播模式，通过概率论和统计学分析疾病发生的概率和风险因素。
-   - **数学与计算机科学的结合**：在模型设计和优化中，数学提供了理论基础，计算机科学提供了实现手段，两者结合可以开发出高效的算法和系统，提高疾病诊断的准确性和效率。
-总之，数学在利用机器学习技术提高疾病诊断的准确性和效率方面发挥了不可或缺的作用，不仅提供了数据处理、模型设计和优化的工具，还通过理论分析确保了模型的稳健性和可解释性。通过跨学科合作，数学可以与生物医学、计算机科学等领域的知识和技术相结合，共同推进疾病诊断技术的发展。</t>
-  </si>
-  <si>
-    <t>智慧医疗系统的发展确实离不开化学的贡献，特别是在新检测方法和治疗手段的开发方面。化学不仅为医疗技术的进步提供了理论基础，还通过具体的化学技术推动了这些进步。从化学的角度出发，我们可以从以下几个方面来探讨如何为智慧医疗系统提供新的检测方法和治疗手段：
-1. **新型药物分子的设计与合成**：利用计算化学和结构生物学，我们可以预测目标蛋白质的三维结构，进而设计针对特定疾病靶点的药物分子。通过分子对接和虚拟筛选等方法，研究人员可以在庞大的化合物库中快速找到潜在的活性分子。此外，基于多肽、核酸和抗体的药物开发也日益成为研究热点，这些生物大分子药物具有更高的特异性和更低的副作用，能够为患者提供更精准的治疗方案。
-2. **高灵敏度生物传感器的开发**：化学在开发用于疾病早期检测的生物传感器方面发挥了关键作用。例如，通过纳米材料和量子点等先进材料的应用，可以开发出具有极高灵敏度和选择性的生物传感器。这些传感器可以用于检测血液、唾液、尿液等体液中的低浓度生物标志物，如肿瘤标志物、病毒核酸等，实现疾病的早期诊断。此外，电化学、光学和微流控技术的结合也为开发便携式、快速响应的检测设备提供了可能。
-3. **药物递送系统的创新**：化学在设计和制备智能药物递送系统方面同样具有重要的作用。通过精确控制药物的释放时间和位置，可以提高治疗效果并减少副作用。例如，利用脂质体、聚合物纳米颗粒、水凝胶等材料，可以实现药物的靶向递送。此外，响应型材料的应用，如pH响应、温度响应、光响应等，使得药物能够在特定的生理条件下释放，进一步提高了治疗的精准度。
-4. **生物分子的代谢过程研究**：通过稳定同位素标记和质谱分析等技术，可以深入研究药物在体内的代谢途径，这对于理解药物的作用机制、评估药物的安全性和有效性至关重要。此外，代谢组学的研究也有助于发现新的生物标志物，为疾病的预防、诊断和治疗提供新的线索。
-5. **交叉学科合作**：化学与生物学、医学、材料科学等领域的交叉合作是推动智慧医疗系统发展的关键。例如，化学家可以与生物学家合作，开发新的分子探针用于细胞内成像；与材料科学家合作，设计新型生物相容性材料用于组织工程；与医生合作，开展临床试验以验证新药物和治疗方法的有效性。
-通过上述这些化学领域的创新，我们可以为智慧医疗系统提供更加多样化和高效的检测方法和治疗手段。这些贡献不仅促进了医疗健康技术的发展，也为患者带来了更加个性化和高效的医疗服务。化学的独特贡献在于它能够从分子水平上解析生命现象，为医疗技术的进步提供坚实的理论基础和技术支持。</t>
-  </si>
-  <si>
-    <t>优化医疗资源的地理分布，以提高医疗服务的可达性和公平性，是当代地理学研究中的一个重要议题。地理学通过其独特的空间分析工具和方法，可以为这一问题提供新的思维方式和潜在联系。以下是从地理学的角度出发，结合GIS技术、空间分析方法、以及人地关系理论的解决策略：
-1. **需求评估与热点分析**：使用GIS技术进行人口分布、年龄结构、疾病发生率等数据的空间分析，可以识别出医疗服务需求高的区域。通过热点分析，可以确定医疗资源紧缺的“热点”区域，为资源的精准配置提供依据。
-2. **时空分析与预测模型**：利用时空间分析方法，分析不同时间段内医疗服务的需求变化，预测未来的需求趋势。这有助于医疗资源的动态调整和长期规划，确保资源分配能够适应人口流动和社会经济发展的变化。
-3. **多准则决策分析（MCDA）**：结合地理学的空间分析能力和多准则决策理论，通过考虑地理可达性、社会经济状况、生态环境等多个因素，进行医疗设施选址优化。这种方法有助于在多个竞争性目标之间找到最优解，实现医疗资源分配的公平性。
-4. **移动医疗服务**：对于偏远地区或交通不便的地区，可以考虑发展移动医疗服务。地理学可以提供路线规划、服务覆盖范围分析等技术支持，确保移动医疗服务的效率和效果。
-5. **社区医疗与远程医疗**：通过在社区层面建立医疗服务点，利用远程医疗技术，可以提高医疗服务的可及性，尤其是对于居住在偏远地区的居民。地理学可以分析社区的分布特点，为社区医疗点的合理布局提供科学依据。
-6. **政策支持与公众参与**：政策制定者可以利用地理学的空间分析结果，制定更加合理的医疗资源分配政策。同时，通过公众参与，收集社区居民对医疗服务的需求和意见，可以提高资源分配的公平性和满意度。
-地理学的研究不仅能够提供技术上的支持，更重要的是，它能够促进对人类活动与自然环境之间复杂关系的理解，帮助我们在优化医疗资源地理分布的过程中，考虑到人地关系的和谐发展。这种方式不仅提高了医疗服务的可达性和公平性，也为其他社会服务领域的优化提供了参考和借鉴。</t>
-  </si>
-  <si>
-    <t>自然语言处理（NLP）技术在医疗文献分析中的应用及其对临床决策的辅助作用是一个多方面且日益重要的领域。从人工智能的角度来看，NLP技术通过结合深度学习、机器学习等先进方法，不仅能够提高文献分析的效率和准确性，还能在多个层面上促进医疗决策的科学性和个性化。以下是从AI视角对这一领域的补充和深入探讨：
-1. **自动化文献摘要**：利用深度学习技术如循环神经网络（RNN）、长短期记忆网络（LSTM）和Transformer模型，可以实现对大量医疗文献的高效摘要生成。这些模型通过学习文本的语义结构，能够提取关键信息，帮助医生快速了解文献的核心内容，从而节省大量时间。
-2. **信息检索与推荐**：通过构建基于内容的推荐系统和协同过滤技术，可以实现对医疗文献的个性化推荐。这些系统能够根据医生的历史阅读记录和偏好，推荐相关的最新研究，提高信息获取的针对性。此外，利用语义搜索技术，可以实现基于概念的精准检索，进一步提高信息检索的效率。
-3. **临床决策支持**：NLP技术可以用于构建临床决策支持系统（CDSS）。通过分析电子病历（EMR）数据，这些系统能够提取患者的临床特征，并结合最新的临床指南和研究成果，为医生提供治疗建议。例如，可以利用自然语言理解和机器学习算法，分析患者的症状、病史和实验室检查结果，预测疾病的发展趋势，提供个性化的治疗方案。
-4. **疾病监测与预警**：通过监控社交媒体、新闻报道和医疗文献，NLP技术可以帮助公共卫生部门及时发现疾病爆发的迹象。利用情感分析和文本聚类技术，可以识别出异常的健康信息模式，为早期预警和干预提供依据。例如，在流感季节，通过分析社交媒体上的相关讨论，可以提前预测流感的传播趋势，指导公共卫生资源的分配。
-5. **医疗知识图谱构建**：利用NLP技术可以从大量医疗文献中自动提取医学概念和关系，构建医疗领域的知识图谱。这些知识图谱不仅能够提供结构化的医学知识，还可以支持复杂的查询和推理任务。例如，医生可以通过知识图谱查询特定疾病的相关药物、治疗方法和临床试验，从而为患者提供更全面的治疗建议。
-6. **电子病历自然语言处理**：NLP技术可以实现对电子病历的高效处理，包括信息提取、分类和结构化。通过自动识别病历中的关键信息，如诊断、治疗方案和药物剂量，可以减少医生的工作负担，提高医疗记录的准确性和完整性。此外，利用NLP技术，可以实现病历的自动编码，支持医疗保险报销和医疗质量管理。
-**新的思维方式和潜在联系**：
-1. **跨学科融合**：NLP技术在医疗领域的应用需要跨学科的融合，包括计算机科学、医学、心理学等。通过多学科的合作，可以更好地理解医疗文献中的复杂信息，提高NLP模型的准确性和适用性。
-2. **伦理和隐私**：在处理医疗数据时，伦理和隐私问题尤为重要。需要开发符合伦理标准的NLP技术，确保患者数据的安全和隐私保护。例如，可以采用差分隐私技术，对敏感信息进行匿名化处理。
-3. **模型可解释性**：在医疗领域，模型的可解释性是至关重要的。医生需要了解AI系统的决策过程，以便信任其建议。因此，需要开发可解释的NLP模型，如基于规则的系统和透明的机器学习模型，确保其决策过程透明且可验证。
-4. **终身学习**：医疗领域的知识不断更新，NLP模型需要具备终身学习的能力。通过在线学习和增量学习技术，模型可以不断吸收新的研究成果和临床数据，保持其性能的最优化。
-**学科的独特贡献**：
-1. **算法创新**：AI领域的算法创新为NLP技术在医疗文献分析中的应用提供了强大支持。例如，Transformer模型在处理长文本和复杂语义关系方面的优势，使得文献摘要和信息检索更加高效。
-2. **数据处理**：AI技术在处理大规模医疗数据方面具有显著优势。通过数据预处理、特征提取和数据增强技术，可以提高NLP模型的鲁棒性和泛化能力。
-3. **系统集成**：AI技术可以实现NLP技术与其他医疗系统的无缝集成，如电子病历系统、临床决策支持系统和医疗知识管理系统。这种集成不仅提高了医疗工作的效率，还促进了医疗信息的共享和协同。
-**与已知视角之间的互补关系**：
-1. **补充传统方法**：NLP技术可以补充传统的文献阅读和临床决策方法，提供数据驱动的决策支持。通过自动化和智能化的技术，可以减轻医生的工作负担，提高医疗决策的科学性和个性化。
-2. **促进知识更新**：NLP技术可以加速医疗知识的更新和传播。通过自动摘要和推荐系统，医生可以及时获取最新的研究成果，提高医疗服务质量。
-3. **优化资源分配**：NLP技术可以优化医疗资源的分配，通过疾病监测和预警系统，公共卫生部门可以更有效地应对突发公共卫生事件，提高社会整体的健康水平。
-总之，NLP技术在医疗文献分析中的应用及其对临床决策的辅助作用是一个充满潜力的领域。通过结合深度学习、机器学习等先进方法，NLP技术不仅能够提高文献分析的效率和准确性，还能在多个层面上促进医疗决策的科学性和个性化。通过跨学科融合、伦理和隐私保护、模型可解释性、终身学习等新的思维方式和潜在联系，AI技术在这一领域的独特贡献将得到进一步的发挥和优化。</t>
-  </si>
-  <si>
-    <t>### 智慧医疗系统的多学科视角分析
-#### 1. 基因组学数据的分析与个性化医疗
-**生物学教授的视角**：
-- **数据收集与处理**：确保样本的质量控制，包括样本的来源、存储条件、提取方法等。基因组数据的标准化也是关键，以便于不同来源的数据能够互相比较和整合。
-- **变异解释**：对基因组学数据中的变异进行解释时，需要考虑多个变异之间的相互作用，以及这些变异如何影响基因表达、蛋白质结构和功能。通过功能基因组学和系统生物学的方法，可以构建基因-表型关联模型。
-- **疾病相关性分析**：采用生物网络的方法，揭示基因、蛋白质、代谢物等分子之间的复杂相互作用网络，有助于理解疾病发生的分子机制。整合多组学数据（如转录组、蛋白质组、代谢组等）可以更全面地解析疾病状态下的生物系统变化。
-- **药物基因组学**：基于个体的基因组信息选择最适合的药物和剂量，是实现个性化医疗的重要途径。生物学对于药物作用机制的理解，能够帮助识别药物靶点，预测药物疗效，以及发现可能的副作用。
-- **数据安全与隐私保护**：在处理和分析基因组学数据时，必须严格遵守医学伦理和法律法规，保护患者的隐私。
-- **临床决策支持系统的构建**：开发智能化的决策支持系统，整合多源数据，通过机器学习等技术提供个性化的治疗建议。
-- **持续的研究与验证**：通过临床试验和观察研究，验证基于基因组学数据的个性化治疗方案的效果，推动个性化医疗从理论走向实践。
-#### 2. 影像技术与人工智能的结合
-**物理学教授的视角**：
-- **优化成像硬件**：利用物理学原理优化成像硬件，例如通过调整电磁波的发射频率和强度，利用共振原理提高核磁共振成像（MRI）的质量。改进X射线的探测器材料和结构，减少散射光的影响，提高CT扫描的对比度和分辨率。
-- **图像重建算法的创新**：基于物理学的成像模型，开发更有效的图像重建算法。例如，利用逆散射理论解决超声图像中的声波散射问题，提高图像质量。在PET中，通过优化伽马光子的追踪算法，减少图像中的噪声，提高诊断的准确性。
-- **多模态成像技术**：物理学有助于整合多种成像技术，形成多模态成像系统。例如，结合MRI和PET可以同时获得生物组织的功能信息和结构信息，为疾病的综合评估提供更为全面的视角。
-- **物理模型与机器学习的结合**：将基于物理的模型与机器学习算法相结合，提供先验知识，帮助模型更好地理解数据背后的物理过程。例如，在基于深度学习的图像重建中，可以将物理定律作为正则化项加入到损失函数中。
-- **提高诊断效率与准确性**：通过物理学原理指导下的成像技术与人工智能算法的优化，可以提高疾病的早期检测率，减少误诊和漏诊的可能性。对于治疗方案的制定，基于物理学的模型可以帮助预测治疗效果，为个性化治疗提供依据。
-- **治疗过程的物理优化**：在放射治疗中，利用物理学原理优化射线的分布，减少对健康组织的损伤，提高治疗的精准度。例如，通过蒙特卡洛模拟可以精确计算射线在人体内的传播路径，为治疗计划提供支持。
-#### 3. 利用机器学习技术提高疾病诊断的准确性和效率
-**数学教授的视角**：
-- **数据准备与处理**：使用统计方法识别和处理异常值和缺失值，确保数据质量。通过主成分分析（PCA）、独立成分分析（ICA）等特征工程方法进行特征提取和降维。通过Z-score标准化、最小-最大标准化等方法使不同量纲的数据具有可比性。
-- **选择合适的机器学习算法**：根据问题的性质选择合适的算法，例如，对于分类问题，可以考虑使用支持向量机（SVM）、决策树、随机森林等；对于回归问题，可以考虑线性回归、岭回归、LASSO回归等。
-- **模型评估**：使用交叉验证等方法评估模型的泛化能力，确保模型在未见数据上的表现。通过AUC-ROC曲线、F1分数、准确率、召回率等指标综合评估模型性能。
-- **模型训练与优化**：利用梯度下降法、随机梯度下降法、遗传算法等优化方法寻找模型的最佳参数，提高模型的预测准确性。引入L1正则化、L2正则化等方法防止模型过拟合。通过Bagging、Boosting等集成学习方法提高模型的稳定性和预测能力。
-- **模型部署与应用**：使用Shapley值、LIME等数学工具解释模型的预测结果，提高模型的透明度和可解释性。在实际应用中，利用在线学习等技术使模型能够实时更新，适应数据的变化。
-- **跨学科合作**：在疾病诊断中，数学方法可以与生物医学知识相结合，例如，通过图论和网络分析研究疾病在不同人群中的传播模式，通过概率论和统计学分析疾病发生的概率和风险因素。在模型设计和优化中，数学提供了理论基础，计算机科学提供了实现手段。
-#### 4. 通过化学分析提供新的检测方法和治疗手段
-**化学教授的视角**：
-- **新型药物分子的设计与合成**：利用计算化学和结构生物学预测目标蛋白质的三维结构，设计针对特定疾病靶点的药物分子。通过分子对接和虚拟筛选等方法快速找到潜在的活性分子。基于多肽、核酸和抗体的药物开发具有更高的特异性和更低的副作用。
-- **高灵敏度生物传感器的开发**：通过纳米材料和量子点等先进材料的应用，开发具有极高灵敏度和选择性的生物传感器。这些传感器可以用于检测血液、唾液、尿液等体液中的低浓度生物标志物，实现疾病的早期诊断。电化学、光学和微流控技术的结合提供便携式、快速响应的检测设备。
-- **药物递送系统的创新**：设计和制备智能药物递送系统，通过精确控制药物的释放时间和位置，提高治疗效果并减少副作用。利用脂质体、聚合物纳米颗粒、水凝胶等材料实现药物的靶向递送。响应型材料的应用（如pH响应、温度响应、光响应）进一步提高治疗的精准度。
-- **生物分子的代谢过程研究**：通过稳定同位素标记和质谱分析等技术深入研究药物在体内的代谢途径，理解药物的作用机制，评估药物的安全性和有效性。代谢组学的研究有助于发现新的生物标志物，为疾病的预防、诊断和治疗提供新的线索。
-- **交叉学科合作**：化学与生物学、医学、材料科学等领域的交叉合作是推动智慧医疗系统发展的关键。化学家可以与生物学家合作开发新的分子探针用于细胞内成像，与材料科学家合作设计新型生物相容性材料用于组织工程，与医生合作开展临床试验验证新药物和治疗方法的有效性。
-#### 5. 优化医疗资源的地理分布，提高医疗服务的可达性和公平性
-**地理学教授的视角**：
-- **需求评估与热点分析**：使用GIS技术进行人口分布、年龄结构、疾病发生率等数据的空间分析，识别出医疗服务需求高的区域。通过热点分析确定医疗资源紧缺的“热点”区域，为资源的精准配置提供依据。
-- **时空分析与预测模型**：利用时空间分析方法分析不同时间段内医疗服务的需求变化，预测未来的需求趋势。这有助于医疗资源的动态调整和长期规划，确保资源分配能够适应人口流动和社会经济发展的变化。
-- **多准则决策分析（MCDA）**：结合地理学的空间分析能力和多准则决策理论，通过考虑地理可达性、社会经济状况、生态环境等多个因素，进行医疗设施选址优化。这种方法有助于在多个竞争性目标之间找到最优解，实现医疗资源分配的公平性。
-- **移动医疗服务**：对于偏远地区或交通不便的地区，可以考虑发展移动医疗服务。地理学可以提供路线规划、服务覆盖范围分析等技术支持，确保移动医疗服务的效率和效果。
-- **社区医疗与远程医疗**：通过在社区层面建立医疗服务点，利用远程医疗技术提高医疗服务的可及性，尤其是对于居住在偏远地区的居民。地理学可以分析社区的分布特点，为社区医疗点的合理布局提供科学依据。
-- **政策支持与公众参与**：政策制定者可以利用地理学的空间分析结果制定更加合理的医疗资源分配政策。通过公众参与收集社区居民对医疗服务的需求和意见，提高资源分配的公平性和满意度。
-#### 6. 自然语言处理技术在医疗文献分析中的应用及其对临床决策的辅助作用
-**人工智能教授的视角**：
-- **自动化文献摘要**：利用深度学习技术如循环神经网络（RNN）、长短期记忆网络（LSTM）和Transformer模型，实现对大量医疗文献的高效摘要生成。这些模型通过学习文本的语义结构，能够提取关键信息，帮助医生快速了解文献的核心内容，从而节省大量时间。
-- **信息检索与推荐**：通过构建基于内容的推荐系统和协同过滤技术，实现对医疗文献的个性化推荐。这些系统能够根据医生的历史阅读记录和偏好，推荐相关的最新研究，提高信息获取的针对性。利用语义搜索技术，可以实现基于概念的精准检索，进一步提高信息检索的效率。
-- **临床决策支持**：NLP技术可以用于构建临床决策支持系统（CDSS）。通过分析电子病历（EMR）数据，这些系统能够提取患者的临床特征，并结合最新的临床指南和研究成果，为医生提供治疗建议。例如，可以利用自然语言理解和机器学习算法，分析患者的症状、病史和实验室检查结果，预测疾病的发展趋势，提供个性化的治疗方案。
-- **疾病监测与预警**：通过监控社交媒体、新闻报道和医疗文献，NLP技术可以帮助公共卫生部门及时发现疾病爆发的迹象。利用情感分析和文本聚类技术，可以识别出异常的健康信息模式，为早期预警和干预提供依据。例如，在流感季节，通过分析社交媒体上的相关讨论，可以提前预测流感的传播趋势，指导公共卫生资源的分配。
-- **医疗知识图谱构建**：利用NLP技术可以从大量医疗文献中自动提取医学概念和关系，构建医疗领域的知识图谱。这些知识图谱不仅能够提供结构化的医学知识，还可以支持复杂的查询和推理任务。例如，医生可以通过知识图谱查询特定疾病的相关药物、治疗方法和临床试验，从而为患者提供更全面的治疗建议。
-- **电子病历自然语言处理**：NLP技术可以实现对电子病历的高效处理，包括信息提取、分类和结构化。通过自动识别病历中的关键信息，如诊断、治疗方案和药物剂量，可以减少医生的工作负担，提高医疗记录的准确性和完整性。此外，利用NLP技术，可以实现病历的自动编码，支持医疗保险报销和医疗质量管理。
-**新的思维方式和潜在联系**：
-1. **跨学科融合**：NLP技术在医疗领域的应用需要跨学科的融合，包括计算机科学、医学、心理学等。通过多学科的合作，可以更好地理解医疗文献中的复杂信息，提高NLP模型的准确性和适用性。
-2. **伦理和隐私**：在处理医疗数据时，伦理和隐私问题尤为重要。需要开发符合伦理标准的NLP技术，确保患者数据的安全和隐私保护。例如，可以采用差分隐私技术，对敏感信息进行匿名化处理。
-3. **模型可解释性**：在医疗领域，模型的可解释性是至关重要的。医生需要了解AI系统的决策过程，以便信任其建议。因此，需要开发可解释的NLP模型，如基于规则的系统和透明的机器学习模型，确保其决策过程透明且可验证。
-4. **终身学习**：医疗领域的知识不断更新，NLP模型需要具备终身学习的能力。通过在线学习和增量学习技术，模型可以不断吸收新的研究成果和临床数据，保持其性能的最优化。
-**学科的独特贡献**：
-1. **算法创新**：AI领域的算法创新为NLP技术在医疗文献分析中的应用提供了强大支持。例如，Transformer模型在处理长文本和复杂语义关系方面的优势，使得文献摘要和信息检索更加高效。
-2. **数据处理**：AI技术在处理大规模医疗数据方面具有显著优势。通过数据预处理、特征提取和数据增强技术，可以提高NLP模型的鲁棒性和泛化能力。
-3. **系统集成**：AI技术可以实现NLP技术与其他医疗系统的无缝集成，如电子病历系统、临床决策支持系统和医疗知识管理系统。这种集成不仅提高了医疗工作的效率，还促进了医疗信息的共享和协同。
-**与已知视角之间的互补关系**：
-1. **补充传统方法**：NLP技术可以补充传统的文献阅读和临床决策方法，提供数据驱动的决策支持。通过自动化和智能化的技术，可以减轻医生的工作负担，提高医疗决策的科学性和个性化。
-2. **促进知识更新**：NLP技术可以加速医疗知识的更新和传播。通过自动摘要和推荐系统，医生可以及时获取最新的研究成果，提高医疗服务质量。
-3. **优化资源分配**：NLP技术可以优化医疗资源的分配，通过疾病监测和预警系统，公共卫生部门可以更有效地应对突发公共卫生事件，提高社会整体的健康水平。
-总之，通过这些多学科视角的分析和综合解决方案，智慧医疗系统能够更好地应对医疗领域的挑战，实现更高效、更精准、更公平的医疗服务，最终造福广大患者和社会。</t>
-  </si>
-  <si>
-    <t>在智慧医疗系统中，基因组学数据的分析对于实现个性化医疗至关重要。确保数据的质量和隐私保护是实现这一目标的基础。从生物学专业的角度出发，以下是一些建议和方法：
-1. **数据质量控制**：在数据收集阶段，应采用标准化的采样和处理流程，确保样本的质量。例如，血液样本的采集时间、条件和保存方式都应严格控制。在数据生成阶段，选择高质量的测序平台和技术，定期进行设备校准和维护，以减少技术误差。在数据分析阶段，采用先进的生物信息学工具进行质控，剔除低质量的测序读段，确保数据的准确性和可靠性。
-2. **数据标准化**：建立统一的数据标准和格式，确保不同来源的数据能够兼容和互操作。这有助于提高数据的可比性和分析的准确性。例如，采用国际公认的基因组参考序列、基因命名体系和变异注释标准。
-3. **数据验证**：通过独立的方法和技术对关键数据进行验证，例如使用不同的测序技术（如Sanger测序）来验证高通量测序的结果，或通过功能实验（如基因敲除或过表达实验）来验证基因功能预测。
-4. **隐私保护**：建立严格的数据访问控制机制，确保只有授权的人员才能访问敏感的基因组数据。采用数据加密技术，对存储和传输的数据进行加密处理，防止数据泄露。对于匿名化处理的数据，应确保无法通过组合其他信息来重新识别个体。此外，制定明确的数据使用政策，规定数据的使用目的、范围和期限，并确保遵守相关的法律法规，如《通用数据保护条例》（GDPR）和《中华人民共和国个人信息保护法》。
-5. **伦理审查**：所有涉及人类基因组数据的研究项目都应经过伦理审查委员会的审批，确保研究符合伦理标准，保护参与者的权益。伦理审查应考虑研究的必要性、数据的敏感性、参与者的知情同意等多方面因素。
-6. **持续教育和培训**：对参与基因组学数据处理和分析的人员进行定期的培训，提高他们对数据质量控制和隐私保护的认识和技能。这包括最新的法律法规、技术进展和最佳实践。
-通过上述措施，可以有效地确保基因组学数据的质量和隐私保护，为智慧医疗系统的健康发展提供坚实的基础。</t>
-  </si>
-  <si>
-    <t>在智慧医疗系统中，影像技术与人工智能（AI）的结合不仅推动了医疗诊断的精准度，还提高了治疗效率。从物理学的角度来看，这种结合涉及到了成像硬件的优化、图像重建算法的改进、多模态成像技术的发展、物理模型与机器学习的融合等多个方面。下面将详细介绍这些方法及其面临的挑战。
-1. **成像硬件的优化**：成像设备的工作原理本质上是一个物理过程，比如X射线成像、磁共振成像（MRI）、超声成像等。优化这些设备的性能，如提高分辨率、缩短采集时间、降低辐射剂量等，需要深入理解电磁学、声学和核磁共振等物理原理。例如，在MRI中，通过改善磁场的均匀性和强度，可以提高图像的质量；在CT扫描中，研发新的探测器材料可以有效降低辐射剂量同时保持图像的诊断价值。
-2. **图像重建算法的改进**：图像重建是从原始测量数据中恢复出高分辨率图像的过程，这涉及到复杂的数学问题。传统的重建算法依赖于物理学的先验知识，如傅里叶变换在CT成像中的应用。近年来，深度学习技术被引入到图像重建领域，通过学习大量的成像数据，能够实现更快的重建速度和更高的图像质量。但是，这一过程也面临着如何保证重建图像的物理一致性、如何处理数据不足或噪声干扰等问题。
-3. **多模态成像技术的发展**：多模态成像技术旨在结合不同成像模态的优势，提供更为全面的诊断信息。例如，PET/MRI将正电子发射层析成像（PET）与磁共振成像相结合，能够在提供代谢活性信息的同时，获得高对比度的解剖结构图像。这种技术的发展需要解决模态间数据融合、同步采集等技术难题，同时也需要深入理解不同成像模态背后的物理机制。
-4. **物理模型与机器学习的结合**：将物理模型融入到机器学习算法中，可以在一定程度上克服黑箱模型的问题，使AI模型更加可靠。例如，在超声成像中，可以将声波传播的物理模型作为先验知识，通过深度学习方法来预测更准确的组织边界。这种结合方式不仅可以提高模型的准确性，还能增强其对异常情况的鲁棒性。
-5. **提高诊断效率与准确性**：通过AI技术自动标记病灶、量化病变程度等，可以极大地提高医生的工作效率和诊断的准确性。但是，这一过程需要大量的标注数据作为训练集，而医疗数据的获取和标注往往成本高昂且耗时。此外，AI诊断的可解释性问题也是一个挑战，医生需要能够理解AI做出诊断的依据。
-6. **治疗过程的物理优化**：在放射治疗等治疗过程中，精准地确定辐射剂量和照射方向对于减少副作用、提高治疗效果至关重要。物理学在这一领域发挥着重要作用，例如利用蒙特卡洛模拟法来预测辐射剂量分布，通过优化算法来设计最佳的治疗方案。同时，如何实时监测并调整治疗过程，以应对患者体位变化等因素的影响，也是当前研究的热点之一。
-综上所述，影像技术与人工智能的结合在智慧医疗系统中展现了广阔的应用前景，但同时也面临着成像硬件优化、图像重建算法改进、多模态成像技术发展、物理模型与机器学习结合、诊断效率与准确性提高以及治疗过程物理优化等多方面的挑战。未来，随着技术的不断进步和跨学科合作的加深，这些挑战有望得到解决，从而推动智慧医疗的发展，为人类健康事业做出更大贡献。</t>
-  </si>
-  <si>
-    <t>在智慧医疗系统中，利用机器学习技术提高疾病诊断的准确性和效率是一个复杂但至关重要的任务。作为数学领域的资深教授，我将从数学专业的角度出发，提供一些建议和方法，涵盖数据准备与处理、选择合适的机器学习算法、模型训练与优化、模型部署与应用等方面。
-1. **数据准备与处理**：
-   - **数据收集**：首先需要收集大量、高质量的医疗数据，包括但不限于患者的病史、实验室检测结果、影像资料等。这些数据是训练机器学习模型的基础。
-   - **数据清洗**：数据清洗是一个重要的环节，需要去除不完整、错误或不相关的数据点。常用的数学方法包括异常值检测、缺失值处理等。
-   - **数据标注**：为了训练监督学习模型，需要有专业医疗人员对数据进行标注，确定每个案例的诊断结果。这一步骤对于模型的准确性至关重要。
-   - **数据标准化**：为了提高模型的训练效果，需要对数据进行标准化或归一化处理，常用的方法有Z-score标准化、最小-最大标准化等。
-2. **选择合适的机器学习算法**：
-   - **基于任务选择算法**：不同的诊断任务可能需要不同的算法。例如，对于分类任务可以考虑使用支持向量机、随机森林、深度神经网络等；对于回归任务可以考虑使用线性回归、岭回归、Lasso回归等。
-   - **考虑模型的可解释性**：在医疗领域，模型的可解释性十分重要，因为医生需要理解模型为什么做出特定的诊断。因此，选择那些能够提供决策路径或重要特征权重的算法，如决策树、逻辑回归等。
-3. **模型训练与优化**：
-   - **数据划分**：将数据集划分为训练集、验证集和测试集，确保模型的泛化能力。常用的方法有交叉验证。
-   - **超参数调优**：通过网格搜索、随机搜索等方法寻找模型的最佳超参数组合。
-   - **性能评估**：使用准确率、召回率、F1分数、AUC-ROC曲线等指标对模型进行评估，确保模型在不同数据集上的表现稳定。
-   - **正则化**：为了防止过拟合，可以使用L1、L2正则化等技术。
-4. **模型部署与应用**：
-   - **模型集成**：通过集成学习方法，如投票法、堆叠法等，将多个模型的预测结果结合起来，进一步提高诊断的准确性。
-   - **持续监控与更新**：模型部署后，需要持续监控其性能，并根据新的数据进行定期更新，以适应医疗领域的变化。
-   - **用户界面设计**：设计友好的用户界面，使医生能够轻松地输入患者数据并获得诊断建议，同时提供模型的解释性信息，增强医生的信任度。
-通过上述方法，我们可以利用机器学习技术为智慧医疗系统提供强大的支持，不仅能够提高疾病诊断的准确性，还能大大提升诊断的效率，为患者提供更及时、更精准的医疗服务。</t>
-  </si>
-  <si>
-    <t>在智慧医疗系统中，化学分析是推动新检测方法和治疗手段发展的关键领域之一。化学专业的知识和技术可以从以下几个方面提供支持：
-1. **新型药物分子的设计与合成**：通过计算机辅助药物设计（CADD）和分子模拟技术，我们可以在原子水平上理解药物分子与靶点的相互作用机制。利用这些信息，可以设计和合成具有更高选择性、更低毒性和更高效能的新药。例如，通过结构生物学和计算化学结合，可以精确地设计出与特定蛋白质受体结合的小分子化合物，以达到治疗疾病的目的。
-2. **高灵敏度生物传感器的开发**：化学分析技术对于开发高灵敏度和特异性的生物传感器至关重要。例如，通过使用纳米材料如金纳米粒子或碳纳米管，可以增强生物传感器的信号响应，提高检测限。此外，通过化学修饰传感器表面，可以实现对特定生物分子如DNA、蛋白质或小分子代谢物的选择性识别。这些传感器可以用于早期疾病诊断、实时健康监测以及个性化医疗。
-3. **药物递送系统的创新**：化学在设计和制备新型药物递送系统中扮演着核心角色。例如，利用脂质体、聚合物纳米粒子或水凝胶等载体材料，可以实现药物的靶向递送，减少副作用并提高疗效。通过化学方法对这些载体进行功能化，如引入pH敏感、光响应或酶响应的触发机制，可以使药物在特定条件下释放，实现精确控制。此外，多肽和蛋白质药物的递送也是当前研究的热点，这些生物大分子药物往往需要特殊的递送策略来克服其在体内的不稳定性。
-4. **生物分子的代谢过程研究**：通过化学分析技术如质谱（MS）和核磁共振（NMR）等，可以深入研究生物分子的代谢途径，这对于了解疾病发生机制和药物作用机制具有重要意义。例如，通过代谢组学研究，可以发现与疾病相关的生物标志物，为疾病的早期诊断提供依据。同时，通过对药物代谢产物的分析，可以评估药物的安全性和有效性，指导药物的临床应用。
-综上所述，化学分析在智慧医疗系统中提供了强大的工具和技术，不仅能够促进新药的研发，还能推动医疗诊断技术的进步，为实现精准医疗和个性化治疗提供重要支持。通过跨学科的合作，化学与生物信息学、材料科学、信息技术等领域的结合，将为智慧医疗的发展开辟更广阔的道路。</t>
-  </si>
-  <si>
-    <t>在智慧医疗系统中，优化医疗资源的地理分布，提高医疗服务的可达性和公平性，是一项综合性很强的任务，它不仅需要地理学的专业知识，还需要跨学科的合作。以下是几个关键方面的建议：
-1. **需求评估与热点分析**：利用地理信息系统（GIS）技术，结合人口统计数据、疾病发生率、医疗设施分布等，建立医疗服务需求评估模型。通过热点分析识别医疗服务需求高但供给不足的区域，为医疗资源的合理分配提供依据。
-2. **时空分析与预测模型**：发展时空分析技术，分析医疗资源需求的时空变化规律，预测未来一段时间内特定区域的医疗资源需求。这有助于提前规划医疗资源的布局，减少资源浪费，提高应对突发公共卫生事件的能力。
-3. **多准则决策分析（MCDA）**：在医疗资源分配决策过程中，考虑多种因素的影响，如人口密度、经济水平、交通便利性等，采用多准则决策分析方法，综合评估不同方案的优劣，确保决策的科学性和公平性。
-4. **移动医疗服务**：对于偏远地区或交通不便的区域，发展移动医疗服务，如移动医疗车、远程医疗服务等，可以有效提高这些区域居民的医疗服务可达性。
-5. **社区医疗与远程医疗**：加强社区医疗服务网络建设，提供初级医疗服务，减轻大型医院的压力。同时，利用现代信息技术，如互联网、移动通信等，发展远程医疗服务，特别是针对偏远地区和行动不便的患者，可以提供在线咨询、远程诊断等服务。
-6. **政策支持与公众参与**：政府应出台相关政策，鼓励医疗资源向需求高的地区流动，同时保障医疗服务的公益性质。此外，增加公众参与，通过公众健康教育、社区健康促进活动等方式，提高居民的健康意识和自我保健能力，减轻医疗系统的负担。
-通过上述措施的综合运用，可以有效地优化医疗资源的地理分布，提高医疗服务的可达性和公平性，为构建更加智慧、高效的医疗服务体系奠定基础。</t>
-  </si>
-  <si>
-    <t>一份结构化方案文档，遵守项目申请书的格式，技术路线应该对应上研究内容的每个点，要求体现专业性和综合性，用中文回答。
-### 智慧医疗系统项目申请书
-#### 摘要
-智慧医疗系统旨在通过多学科融合，利用先进的生物信息学、物理学、数学、化学和地理学技术，提高疾病诊断的准确性和效率，优化医疗资源的地理分布，实现更高效、更精准、更公平的医疗服务。本项目将从基因组学数据的分析、影像技术与人工智能的结合、机器学习技术的应用、化学分析的新方法和医疗资源的优化分布等方面，提出具体的技术路线和解决方案。
-#### 研究背景和意义
-随着医疗技术的快速发展，智慧医疗系统在提高医疗服务质量和效率方面展现出了巨大潜力。然而，当前的医疗系统仍面临许多挑战，如疾病诊断的准确性不足、医疗资源分布不均、个性化医疗需求难以满足等。本项目旨在通过多学科合作，解决这些问题，推动智慧医疗的发展，最终提高患者的治疗效果和生活质量。
-#### 研究内容
-1. **基因组学数据的分析与个性化医疗**
-2. **影像技术与人工智能的结合**
-3. **机器学习技术在疾病诊断中的应用**
-4. **化学分析的新方法**
-5. **医疗资源的优化分布**
-#### 拟解决的科学问题
-1. **如何利用基因组学数据的分析，为个性化医疗提供更精准的支持？**
-2. **如何通过影像技术与人工智能的结合，提高疾病检测和治疗的效果？**
-3. **如何利用机器学习技术提高疾病诊断的准确性和效率？**
-4. **如何通过化学分析提供新的检测方法和治疗手段？**
-5. **如何优化医疗资源的地理分布，提高医疗服务的可达性和公平性？**
-#### 拟提出的技术路线
-1. **基因组学数据的分析与个性化医疗**
-   - **数据质量控制**：标准化的采样和处理流程，确保样本的质量；选择高质量的测序平台和技术，定期进行设备校准和维护；采用先进的生物信息学工具进行质控，剔除低质量的测序读段。
-   - **数据标准化**：建立统一的数据标准和格式，确保不同来源的数据能够兼容和互操作。
-   - **数据验证**：通过独立的方法和技术对关键数据进行验证，确保数据的准确性和可靠性。
-   - **隐私保护**：建立严格的数据访问控制机制，采用数据加密技术，对存储和传输的数据进行加密处理，防止数据泄露。
-   - **伦理审查**：所有涉及人类基因组数据的研究项目都应经过伦理审查委员会的审批，确保研究符合伦理标准，保护参与者的权益。
-2. **影像技术与人工智能的结合**
-   - **成像硬件的优化**：改善磁场的均匀性和强度，提高MRI图像的质量；研发新的探测器材料，降低CT扫描的辐射剂量。
-   - **图像重建算法的改进**：利用深度学习技术，实现更快的重建速度和更高的图像质量；确保重建图像的物理一致性，处理数据不足或噪声干扰的问题。
-   - **多模态成像技术的发展**：结合不同成像模态的优势，提供更为全面的诊断信息；解决模态间数据融合、同步采集等技术难题，深入理解不同成像模态背后的物理机制。
-   - **物理模型与机器学习的结合**：将物理模型融入到机器学习算法中，克服黑箱模型的问题，使AI模型更加可靠。
-   - **提高诊断效率与准确性**：通过AI技术自动标记病灶、量化病变程度，提高医生的工作效率和诊断的准确性。
-   - **治疗过程的物理优化**：利用蒙特卡洛模拟法预测辐射剂量分布，通过优化算法设计最佳的治疗方案；实时监测并调整治疗过程，应对患者体位变化等因素的影响。
-3. **机器学习技术在疾病诊断中的应用**
-   - **数据准备与处理**：收集大量、高质量的医疗数据，进行数据清洗、标注和标准化处理。
-   - **选择合适的机器学习算法**：根据任务选择合适的算法，如支持向量机、随机森林、深度神经网络等；考虑模型的可解释性，选择能够提供决策路径或重要特征权重的算法。
-   - **模型训练与优化**：将数据集划分为训练集、验证集和测试集，进行超参数调优；使用准确率、召回率、F1分数、AUC-ROC曲线等指标对模型进行评估；采用正则化技术防止过拟合。
-   - **模型部署与应用**：通过集成学习方法提高诊断的准确性；持续监控模型性能，根据新的数据进行定期更新；设计友好的用户界面，提供模型的解释性信息，增强医生的信任度。
-4. **化学分析的新方法**
-   - **新型药物分子的设计与合成**：通过计算机辅助药物设计和分子模拟技术，设计和合成具有更高选择性、更低毒性和更高效能的新药。
-   - **高灵敏度生物传感器的开发**：利用纳米材料如金纳米粒子或碳纳米管，增强生物传感器的信号响应，提高检测限；化学修饰传感器表面，实现对特定生物分子的选择性识别。
-   - **药物递送系统的创新**：利用脂质体、聚合物纳米粒子或水凝胶等载体材料，实现药物的靶向递送；通过化学方法对这些载体进行功能化，实现药物在特定条件下的精确控制。
-   - **生物分子的代谢过程研究**：通过质谱和核磁共振等化学分析技术，研究生物分子的代谢途径，发现与疾病相关的生物标志物，评估药物的安全性和有效性。
-5. **医疗资源的优化分布**
-   - **需求评估与热点分析**：利用GIS技术，结合人口统计数据、疾病发生率、医疗设施分布等，建立医疗服务需求评估模型，通过热点分析识别需求高但供给不足的区域。
-   - **时空分析与预测模型**：分析医疗资源需求的时空变化规律，预测未来一段时间内特定区域的医疗资源需求，提前规划医疗资源的布局。
-   - **多准则决策分析（MCDA）**：考虑多种因素的影响，如人口密度、经济水平、交通便利性等，采用多准则决策分析方法，综合评估不同方案的优劣，确保决策的科学性和公平性。
-   - **移动医疗服务**：发展移动医疗服务，如移动医疗车、远程医疗服务等，提高偏远地区或交通不便的区域居民的医疗服务可达性。
-   - **社区医疗与远程医疗**：加强社区医疗服务网络建设，提供初级医疗服务；利用现代信息技术，发展远程医疗服务，提供在线咨询、远程诊断等服务。
-   - **政策支持与公众参与**：政府应出台相关政策，鼓励医疗资源向需求高的地区流动，保障医疗服务的公益性质；增加公众参与，通过公众健康教育、社区健康促进活动等方式，提高居民的健康意识和自我保健能力。
-#### 预期成果
-1. **基因组学数据的分析平台**：建立一个高效的基因组学数据分析平台，支持个性化医疗的实施。
-2. **多模态影像诊断系统**：开发一套结合多种成像模态的影像诊断系统，提高疾病的早期检测率和治疗效果。
-3. **智能诊断辅助系统**：构建一个基于机器学习的智能诊断辅助系统，提高疾病诊断的准确性和效率。
-4. **新型药物和递送系统**：设计和合成具有更高选择性、更低毒性和更高效能的新型药物，开发新型药物递送系统，实现药物的靶向递送。
-5. **优化的医疗资源分布方案**：提出一套科学合理的医疗资源分布方案，提高医疗服务的可达性和公平性，为构建智慧医疗服务体系提供支持。
-通过上述技术路线和解决方案，本项目将为智慧医疗系统的发展提供坚实的技术基础，推动医疗领域的创新，最终提高患者的治疗效果和生活质量。</t>
+    <t>智慧医疗系统主要依赖的核心技术包括：
+1. **大数据分析**：通过收集和分析大量的医疗数据，包括病历、检查结果、治疗方案等，大数据技术能够帮助医生发现疾病的潜在规律，支持临床决策，提高诊断的准确性和治疗的有效性。例如，通过分析历史病例，系统可以预测某种疾病的发病风险，为患者提供早期预警。
+2. **机器学习与深度学习**：这些是人工智能的核心技术，用于训练模型以识别疾病模式、预测疾病发展、辅助诊断等。例如，深度学习算法可以通过分析医学影像（如X光片、CT扫描、MRI等）来辅助医生更准确地识别病变区域，提高诊断效率。
+3. **自然语言处理（NLP）**：NLP技术使得计算机能够理解和生成人类语言，这对于处理和分析大量的文本数据，如病历记录、医学文献等非常有用。NLP可以用于自动摘要、情感分析、信息检索等，帮助医生快速获取关键信息，提高工作效率。
+4. **云计算**：云计算提供了强大的计算能力和数据存储资源，支持智慧医疗系统的高效运行。通过云计算，医疗数据可以安全地存储和管理，同时支持远程访问，便于医生和患者之间的交流，以及跨医院的数据共享。
+5. **物联网（IoT）**：通过连接各种医疗设备和传感器，物联网技术可以实现实时健康监测，收集患者的生理数据，如心率、血压、血糖等，这些数据对于慢性病管理尤为重要。IoT设备可以通过无线网络将数据传输到云端，医生可以远程监控患者的健康状况，及时调整治疗方案。
+在实际应用中，智慧医疗系统面临的主要挑战有：
+1. **数据隐私与安全**：医疗数据涉及患者的隐私，如何在利用大数据的同时保护好患者的个人隐私，防止数据泄露，是智慧医疗面临的一大挑战。需要建立健全的数据安全机制和法律法规，确保数据的合法合规使用。
+2. **数据质量与标准化**：医疗数据来源多样，格式不一，存在大量的非结构化数据，这给数据的整合和分析带来了困难。建立统一的数据标准，提高数据质量，对于提升智慧医疗系统的性能至关重要。
+3. **医生与技术的融合**：虽然人工智能技术可以辅助医生工作，但医生的专业知识和临床经验仍然是不可替代的。如何让医生更好地接受和使用这些技术，实现人机协同，是智慧医疗发展中需要解决的问题。
+4. **技术和成本问题**：先进的医疗技术往往伴随着高昂的成本，包括设备购置、系统维护、人员培训等。如何在确保技术先进性的同时控制成本，使智慧医疗解决方案能够普及到更广泛的地区和人群，是一个现实的挑战。
+5. **法律法规与伦理问题**：随着智慧医疗技术的发展，相关的法律法规和伦理问题也日益凸显。例如，AI诊断的法律责任、患者的知情同意等，都需要明确的法律框架来规范。
+综上所述，智慧医疗系统的发展不仅依赖于技术的进步，还需要克服多方面的挑战，才能真正实现医疗服务质量的提升和效率的优化。</t>
+  </si>
+  <si>
+    <t>1. **数据隐私与安全保护机制的构建**：随着智慧医疗系统中数据量的剧增，如何确保患者个人健康信息的安全成为了一个亟待解决的问题。需要探讨包括但不限于加密技术、访问控制机制、匿名化处理技术等在内的多种安全措施，以及如何在满足数据共享需求的同时保护患者隐私。此问题涉及到计算机科学、信息安全、医疗法律等多个领域。
+2. **数据质量与标准化挑战及其解决方案**：数据质量直接影响智慧医疗系统的效能，而数据标准化则是实现跨机构、跨系统数据共享的基础。此子问题要求分析当前数据质量存在的问题（如缺失值、不一致性等），并探讨建立数据质量评估体系和标准化方案，同时考虑如何促进不同医疗信息系统之间的互操作性。该问题需要医疗信息学、统计学、标准化组织等多方面的专业知识。
+3. **医生与技术融合的路径与策略**：智慧医疗系统的成功实施很大程度上依赖于医生对新技术的接受度和使用情况。此子问题应聚焦于研究如何通过教育、培训等方式提高医生对AI等先进技术的认知和信任，以及如何设计更加人性化的交互界面以降低医生使用技术的门槛。此外，还需探讨医生在智慧医疗生态系统中的角色转变，从传统的治疗者向数据分析师的过渡。这涉及到医学教育、人机交互设计、心理学等多个学科。
+4. **智慧医疗系统的成本效益分析及可持续发展策略**：虽然智慧医疗系统有望提高医疗服务效率和质量，但其高昂的初期投资和长期运营成本是不可忽视的挑战。此子问题需要从经济学角度出发，分析智慧医疗系统在不同应用情景下的成本效益比，探讨政府补贴、商业化运营等模式下的可持续发展策略，同时考虑如何通过技术创新降低整体成本。此问题与经济学、管理学、政策研究等领域紧密相关。
+5. **智慧医疗中的法律、伦理问题及其应对措施**：随着智慧医疗技术的应用范围不断扩大，相关的法律、伦理问题也日益凸显，如患者数据的合法使用、AI决策的透明度和可解释性等。此子问题旨在探讨现行法律法规是否足以应对智慧医疗带来的新挑战，以及如何建立一套既保障患者权益又促进技术创新的伦理准则和法律框架。这需要法律学、伦理学、社会学等多学科专家的共同参与。
+以上五个子问题，分别从技术、管理、法律等多个角度切入，构成了智慧医疗领域面临的综合性挑战的基础。每个子问题都具有较强的针对性和实际操作性，适合由不同领域的专家进行深入研究，最终共同推动智慧医疗系统的健康发展。</t>
+  </si>
+  <si>
+    <t>1. **数据隐私与安全保护机制的构建**：
+   - 智慧医疗系统中数据量的剧增，使得数据隐私与安全成为了一个亟待解决的问题。需要从计算机科学、信息安全、医疗法律等多个领域探讨如何确保患者个人健康信息的安全。具体措施包括但不限于加密技术、访问控制机制、匿名化处理技术等，同时需要在满足数据共享需求的同时保护患者隐私。
+2. **数据质量与标准化挑战及其解决方案**：
+   - 数据质量直接影响智慧医疗系统的效能，而数据标准化则是实现跨机构、跨系统数据共享的基础。此问题需要医疗信息学、统计学、标准化组织等多方面的专业知识。具体任务包括分析当前数据质量存在的问题（如缺失值、不一致性等），并探讨建立数据质量评估体系和标准化方案，同时考虑如何促进不同医疗信息系统之间的互操作性。
+3. **医生与技术融合的路径与策略**：
+   - 智慧医疗系统的成功实施很大程度上依赖于医生对新技术的接受度和使用情况。此问题涉及医学教育、人机交互设计、心理学等多个学科。具体任务包括研究如何通过教育、培训等方式提高医生对AI等先进技术的认知和信任，以及如何设计更加人性化的交互界面以降低医生使用技术的门槛。此外，还需探讨医生在智慧医疗生态系统中的角色转变，从传统的治疗者向数据分析师的过渡。
+4. **智慧医疗系统的成本效益分析及可持续发展策略**：
+   - 虽然智慧医疗系统有望提高医疗服务效率和质量，但其高昂的初期投资和长期运营成本是不可忽视的挑战。此问题与经济学、管理学、政策研究等领域紧密相关。具体任务包括从经济学角度出发，分析智慧医疗系统在不同应用情景下的成本效益比，探讨政府补贴、商业化运营等模式下的可持续发展策略，同时考虑如何通过技术创新降低整体成本。
+5. **智慧医疗中的法律、伦理问题及其应对措施**：
+   - 随着智慧医疗技术的应用范围不断扩大，相关的法律、伦理问题也日益凸显，如患者数据的合法使用、AI决策的透明度和可解释性等。此问题需要法律学、伦理学、社会学等多学科专家的共同参与。具体任务包括探讨现行法律法规是否足以应对智慧医疗带来的新挑战，以及如何建立一套既保障患者权益又促进技术创新的伦理准则和法律框架。
+以上五个子问题，分别从技术、管理、法律等多个角度切入，构成了智慧医疗领域面临的综合性挑战的基础。每个子问题都具有较强的针对性和实际操作性，适合由不同领域的专家进行深入研究，最终共同推动智慧医疗系统的健康发展。</t>
+  </si>
+  <si>
+    <t>在智慧医疗系统中，随着数据量的剧增，确保患者个人健康信息的安全成为了至关重要的议题。为了有效地保护这些敏感信息，同时满足数据共享的需求，我们需要从计算机科学、信息安全、医疗法律等多个角度出发，采取一系列综合措施。以下是具体措施：
+1. **加密技术**：采用先进的加密算法，如对称加密（AES）和非对称加密（RSA），对患者个人健康信息进行加密处理。确保即使信息在传输过程中被截获，也无法直接读取内容。此外，对于存储的数据也应进行加密，以防止未经授权的访问。
+2. **访问控制机制**：建立严格的访问控制政策，确保只有经过授权的人员才能访问特定的健康信息。这包括但不限于基于角色的访问控制（RBAC）、基于属性的访问控制（ABAC）等。通过细粒度的权限管理，可以有效防止数据泄露。
+3. **匿名化处理技术**：在不影响数据分析和研究的前提下，对患者数据进行匿名化处理。例如，可以采用数据脱敏技术，如泛化、扰动、加密哈希等方法，去除或替换个人标识信息，保护患者身份不被泄露。
+4. **安全审计与监控**：实施全面的安全审计与监控机制，定期检查系统日志，追踪异常访问行为，及时发现并响应潜在的安全威胁。通过持续的监控，可以有效提升系统的安全性。
+5. **安全培训与意识提升**：对医疗系统中的所有员工进行定期的安全培训，提高他们对信息保护重要性的认识，确保他们在日常工作中能够遵循最佳实践，减少人为错误导致的安全风险。
+6. **法律法规遵守**：严格遵守相关法律法规，如《中华人民共和国网络安全法》、《个人信息保护法》等，确保医疗数据的收集、存储、处理和传输过程符合法律要求。同时，建立健全的合规管理体系，定期进行合规性评估，确保持续符合各项法规标准。
+7. **数据最小化原则**：遵循数据最小化原则，只收集和处理实现医疗目的所必需的患者信息，避免过度收集导致的风险。同时，确保数据的使用和共享仅限于合法、正当的目的。
+8. **安全协议与标准**：采用国际公认的安全协议和标准，如HIPAA（美国健康保险流通与责任法案）、ISO/IEC 27001（信息安全管理标准）等，通过标准化的安全措施提升系统的整体安全性。
+9. **灾备与恢复计划**：建立完善的数据备份和灾难恢复计划，确保在系统遭受攻击或发生故障时，能够迅速恢复数据，减少对医疗服务的影响。
+10. **跨部门协作**：加强计算机科学、信息安全、医疗法律等领域的跨部门协作，共同应对智慧医疗系统中的数据安全挑战。通过多学科的综合努力，可以更全面地保护患者隐私。
+通过上述措施的综合应用，智慧医疗系统可以有效地保护患者个人健康信息的安全，同时满足数据共享的需求，为患者提供更优质、更安全的医疗服务。</t>
+  </si>
+  <si>
+    <t>在智慧医疗系统中，数据质量是确保系统效能和提供高质量医疗服务的关键因素。数据质量问题通常包括缺失值、不一致性（如数据重复、数据过期、数据错误等）、不完整性和非标准化数据。这些问题的存在可能导致错误的诊断、治疗方案的制定失误，甚至影响到病人安全。因此，建立一套完善的数据质量评估体系和标准化方案，对于提升智慧医疗系统的整体性能至关重要。
+首先，针对数据质量存在的问题，我们可以从以下几个方面着手改善：
+1. **缺失值处理**：对于缺失值，可以通过数据插补的方法填补缺失，例如使用统计方法（如均值、中位数、模式等）或机器学习模型预测缺失值。此外，还可以通过数据收集流程的优化减少数据缺失的发生。
+2. **不一致性解决**：为了解决不一致性问题，需要建立数据验证机制，确保数据输入的准确性和一致性。例如，通过实施数据清洗规则，自动检测和修正错误数据；利用数据匹配技术识别和解决数据重复问题。
+3. **数据完整性提升**：提高数据完整性需要确保所有必要的数据都被完整收集。这要求在数据收集阶段就进行严格的设计，确保所有数据点都得到妥善管理和跟踪。
+4. **数据标准化推进**：为了促进不同医疗信息系统之间的互操作性，数据标准化是必不可少的。这包括采用国际公认的标准和协议，如HL7（Health Level Seven International）、FHIR（Fast Healthcare Interoperability Resources）等，以确保数据格式、数据交换接口的一致性。
+建立数据质量评估体系的具体步骤包括：
+- **定义数据质量标准**：明确数据的准确性、完整性、一致性、及时性和可访问性等关键指标。
+- **实施持续的数据质量监测**：通过自动化工具持续监控数据流，及时发现和报告数据质量问题。
+- **定期的数据质量审计**：组织定期的数据质量审计，评估数据质量水平，并根据审计结果调整数据管理策略。
+- **建立反馈机制**：为数据用户提供反馈渠道，收集他们对数据质量的意见和建议，不断改进数据质量。
+在促进不同医疗信息系统之间的互操作性方面，除了采用标准化的数据格式和协议外，还需要加强跨机构的合作与交流，建立数据共享的法律和政策框架，确保数据的安全和隐私保护，同时推动医疗信息技术的发展，利用云计算、大数据等先进技术提高数据处理能力。
+综上所述，通过构建一套全面的数据质量评估体系，采用科学的数据处理方法，推动数据标准化，可以有效提高智慧医疗系统的数据质量，促进不同医疗信息系统之间的互操作性，最终实现医疗服务的个性化、精准化和高效化。</t>
+  </si>
+  <si>
+    <t>智慧医疗系统的成功实施确实是一个多学科交叉的问题，它不仅涉及医疗技术本身，还包括医学教育、人机交互设计和心理学等多个领域。为了解决医生对AI等先进技术的认知和信任问题，以及设计更加人性化的交互界面以降低使用门槛，我们可以从以下几个方面着手：
+1. **医学教育和持续培训**：医学教育应当随着科技的发展而更新。在医学院的课程中加入AI和数据分析的基础知识，使医学生在职业生涯初期就能建立起对这些技术的初步认识。此外，对于已经执业的医生，提供定期的继续教育和培训项目，特别是针对新出现的技术和工具，可以帮助他们理解并信任这些技术。培训内容应包括技术的工作原理、应用场景、数据安全与隐私保护等，确保医生能够全面了解技术的优势和局限性。
+2. **人机交互设计**：为了提高医生使用技术的意愿，人机交互界面的设计至关重要。设计时应考虑医生的日常操作习惯和工作流程，确保界面直观易用，减少操作复杂度。同时，交互设计也应注重用户体验，例如，提供个性化的用户界面设置，使得医生可以根据个人偏好调整界面布局；使用语音识别等辅助技术，减少医生的输入操作，提高工作效率。
+3. **建立信任体系**：技术的信任度是影响医生采纳意愿的重要因素。可以通过展示真实案例、提供试用机会和建立反馈机制等方式，让医生亲身体验技术带来的益处，逐步建立信任。同时，加强技术的透明度，如清晰地说明数据处理流程、算法的选择依据等，也有助于提高医生的信任感。
+4. **促进角色转变**：随着智慧医疗的发展，医生的角色也在发生变化，从传统的治疗者逐渐向数据分析师过渡。为了支持这一转变，可以鼓励医生参与数据驱动的医疗决策过程，例如，通过参与临床研究项目，学习如何分析和解释医疗数据，以及如何利用这些数据优化治疗方案。此外，医疗机构可以设立跨学科团队，让医生与其他领域的专家（如生物信息学家、数据科学家等）合作，共同探索智慧医疗的新模式。
+5. **政策支持和社会认可**：政府和医疗行业组织可以通过制定相关政策和标准，为智慧医疗的发展提供制度保障。同时，加大对智慧医疗项目的投资，提供科研经费和奖励措施，促进技术创新和应用。社会对智慧医疗的认可和支持也是不可或缺的，通过公众教育和媒体宣传，增强社会对智慧医疗技术的接受度，为医生使用新技术创造良好的外部环境。
+综上所述，通过医学教育和培训提升医生的认知和信任，优化人机交互设计以降低使用门槛，建立坚实的技术信任体系，促进医生角色的平滑过渡，并获得政策和社会的支持，我们能够有效地推进智慧医疗系统的实施，为医疗服务的质量和效率带来显著提升。</t>
+  </si>
+  <si>
+    <t>智慧医疗系统的成本效益分析是一个复杂但至关重要的议题，尤其在政府补贴与商业化运营模式下的可持续发展策略方面。从经济学的角度出发，我们可以通过构建数学模型来具体化这一问题，分析不同情景下的成本效益比，探讨最优的资源配置策略。
+### 成本效益比分析
+#### 初始投资与长期运营成本
+智慧医疗系统的初期投资主要包括硬件购置（如智能设备、服务器）、软件开发（如电子健康记录系统、数据分析平台）、人员培训等。长期运营成本则包括日常维护、系统升级、数据安全、人员工资等。这些成本可以通过成本-效益分析（Cost-Benefit Analysis, CBA）来量化评估，即计算每项投资带来的收益与成本的比值。
+#### 收益评估
+智慧医疗系统的收益主要体现在以下几个方面：
+1. **提高医疗服务效率**：通过自动化流程和智能诊断，可以减少医生的工作负担，提高诊疗速度。
+2. **提升医疗质量**：利用大数据和人工智能技术，可以更准确地诊断疾病，制定个性化的治疗方案。
+3. **降低医疗成本**：通过预防性健康管理和慢性病管理，可以减少住院率和再入院率，从而降低总体医疗费用。
+4. **增强患者满意度**：便捷的在线医疗服务和个性化健康建议可以提高患者的就医体验。
+### 政府补贴模式
+#### 补贴形式
+政府可以通过多种方式补贴智慧医疗系统，包括直接财政补贴、税收减免、科研资助等。这些补贴可以降低医疗机构的初期投资压力，促进智慧医疗系统的快速普及。
+#### 可持续性
+1. **资金保障**：政府补贴可以确保智慧医疗系统的持续运营，避免因资金短缺导致的项目中断。
+2. **政策支持**：政府可以通过制定相关政策，鼓励医疗技术的创新和应用，推动智慧医疗的发展。
+3. **社会公平**：政府补贴可以确保所有人群，尤其是低收入群体，都能享受到高质量的医疗服务。
+### 商业化运营模式
+#### 资金来源
+商业化运营模式主要依靠市场机制筹集资金，包括用户付费、医疗保险、广告收入等。这种模式可以有效分担政府的财政压力，促进智慧医疗系统的市场化发展。
+#### 可持续性
+1. **市场驱动**：市场化运营可以激发企业的创新动力，推动技术和服务的不断升级。
+2. **盈利模式**：通过合理的定价机制和增值服务，智慧医疗系统可以实现长期盈利，确保项目的可持续性。
+3. **竞争促进**：市场竞争可以提高服务质量和效率，促进整个医疗行业的健康发展。
+### 技术创新与成本降低
+#### 技术创新
+1. **云计算与大数据**：利用云计算技术，可以降低硬件投资和维护成本，提高数据处理能力。
+2. **人工智能**：通过机器学习和深度学习技术，可以实现智能诊断和个性化治疗，提高医疗效率。
+3. **物联网**：利用物联网技术，可以实现远程监测和智能设备的互联互通，提高患者管理的便捷性和准确性。
+#### 成本降低
+1. **规模化效应**：通过大规模部署智慧医疗系统，可以分摊初期投资成本，降低单个用户的使用成本。
+2. **标准化建设**：制定统一的技术标准和数据规范，可以减少重复建设和维护成本。
+3. **人才培养**：加强医疗信息化人才的培养，可以降低人员培训和管理成本。
+### 结论
+智慧医疗系统在不同应用情景下的成本效益比是一个多因素、多维度的问题。政府补贴和商业化运营模式各有优势，可以互补促进智慧医疗的可持续发展。通过技术创新和合理的成本控制策略，可以进一步降低整体成本，提高智慧医疗系统的经济效益和社会效益。未来的研究可以进一步细化这些模型，结合具体案例进行实证分析，为政策制定和企业管理提供更具体的指导。</t>
+  </si>
+  <si>
+    <t>随着智慧医疗技术的发展和应用，确实带来了一系列新的法律和伦理挑战。这些问题不仅包括了患者数据的隐私保护、数据的合法使用，还包括了AI决策的透明度、可解释性以及医疗决策的责任归属等问题。现行法律法规在许多方面已经难以充分应对这些新挑战，因此需要一个多学科合作的框架来构建新的法律和伦理准则。
+首先，对于患者数据的保护，现行的法律法规如《中华人民共和国网络安全法》、《中华人民共和国个人信息保护法》等，虽然为数据保护提供了一定的法律基础，但随着技术的发展，这些法律在具体实施中仍面临诸多挑战。例如，如何在确保数据安全的同时，促进医疗数据的共享与利用，以支持医学研究和技术创新。这需要在法律法规中进一步明确数据使用的边界，规定数据在不同情况下如何被合法收集、处理和使用，同时确保患者能够对其个人数据的使用具有知情权和选择权。
+其次，AI决策的透明度和可解释性是智慧医疗中的另一大挑战。AI系统在医疗决策中的应用日益广泛，但其内部运作往往是一个“黑箱”，这对于医疗决策的公正性和患者的信任度构成了威胁。因此，需要在法律框架中加入有关AI决策透明度和可解释性的规定，确保AI系统能够提供清晰的决策路径和依据，以便患者和医生能够理解AI的决策过程，同时也便于对AI决策的监督和评估。
+再者，医疗决策的责任归属问题也需要法律明确。当AI系统参与医疗决策时，如果出现误诊或治疗失误，责任应如何划分？是AI开发者、医疗机构还是操作人员？这需要法律提供明确的指引，确保在发生医疗事故时，能够合理、公正地追责，保护患者权益的同时也要保障医疗创新者的积极性。
+最后，建立跨学科的合作机制，促进法律学、伦理学、社会学等领域的专家共同参与智慧医疗伦理准则和法律框架的构建。这种合作不仅有助于确保技术发展与社会伦理相协调，还能促进社会各界对智慧医疗的理解和支持，从而构建一个既保障患者权益又促进技术创新的良性发展环境。
+综上所述，现行法律法规在应对智慧医疗带来的挑战方面存在一定的局限性，需要通过完善法律法规、增强AI决策的透明度和可解释性、明确医疗决策的责任归属，以及建立多学科合作机制等措施，来构建一套既保障患者权益又促进技术创新的伦理准则和法律框架。</t>
+  </si>
+  <si>
+    <t>### 智慧医疗系统的综合分析与解决方案
+#### 1. 数据隐私与安全保护机制的构建
+**问题背景**：智慧医疗系统中数据量的剧增，使得数据隐私与安全成为了一个亟待解决的问题。需要从计算机科学、信息安全、医疗法律等多个领域探讨如何确保患者个人健康信息的安全。
+**具体措施**：
+1. **加密技术**：采用先进的加密算法，如对称加密（AES）和非对称加密（RSA），对患者个人健康信息进行加密处理。确保即使信息在传输过程中被截获，也无法直接读取内容。此外，对于存储的数据也应进行加密，以防止未经授权的访问。
+2. **访问控制机制**：建立严格的访问控制政策，确保只有经过授权的人员才能访问特定的健康信息。这包括但不限于基于角色的访问控制（RBAC）、基于属性的访问控制（ABAC）等。通过细粒度的权限管理，可以有效防止数据泄露。
+3. **匿名化处理技术**：在不影响数据分析和研究的前提下，对患者数据进行匿名化处理。例如，可以采用数据脱敏技术，如泛化、扰动、加密哈希等方法，去除或替换个人标识信息，保护患者身份不被泄露。
+4. **安全审计与监控**：实施全面的安全审计与监控机制，定期检查系统日志，追踪异常访问行为，及时发现并响应潜在的安全威胁。通过持续的监控，可以有效提升系统的安全性。
+5. **安全培训与意识提升**：对医疗系统中的所有员工进行定期的安全培训，提高他们对信息保护重要性的认识，确保他们在日常工作中能够遵循最佳实践，减少人为错误导致的安全风险。
+6. **法律法规遵守**：严格遵守相关法律法规，如《中华人民共和国网络安全法》、《个人信息保护法》等，确保医疗数据的收集、存储、处理和传输过程符合法律要求。同时，建立健全的合规管理体系，定期进行合规性评估，确保持续符合各项法规标准。
+7. **数据最小化原则**：遵循数据最小化原则，只收集和处理实现医疗目的所必需的患者信息，避免过度收集导致的风险。同时，确保数据的使用和共享仅限于合法、正当的目的。
+8. **安全协议与标准**：采用国际公认的安全协议和标准，如HIPAA（美国健康保险流通与责任法案）、ISO/IEC 27001（信息安全管理标准）等，通过标准化的安全措施提升系统的整体安全性。
+9. **灾备与恢复计划**：建立完善的数据备份和灾难恢复计划，确保在系统遭受攻击或发生故障时，能够迅速恢复数据，减少对医疗服务的影响。
+10. **跨部门协作**：加强计算机科学、信息安全、医疗法律等领域的跨部门协作，共同应对智慧医疗系统中的数据安全挑战。通过多学科的综合努力，可以更全面地保护患者隐私。
+#### 2. 数据质量与标准化挑战及其解决方案
+**问题背景**：数据质量直接影响智慧医疗系统的效能，而数据标准化则是实现跨机构、跨系统数据共享的基础。
+**具体措施**：
+1. **缺失值处理**：对于缺失值，可以通过数据插补的方法填补缺失，例如使用统计方法（如均值、中位数、模式等）或机器学习模型预测缺失值。此外，还可以通过数据收集流程的优化减少数据缺失的发生。
+2. **不一致性解决**：为了解决不一致性问题，需要建立数据验证机制，确保数据输入的准确性和一致性。例如，通过实施数据清洗规则，自动检测和修正错误数据；利用数据匹配技术识别和解决数据重复问题。
+3. **数据完整性提升**：提高数据完整性需要确保所有必要的数据都被完整收集。这要求在数据收集阶段就进行严格的设计，确保所有数据点都得到妥善管理和跟踪。
+4. **数据标准化推进**：为了促进不同医疗信息系统之间的互操作性，数据标准化是必不可少的。这包括采用国际公认的标准和协议，如HL7（Health Level Seven International）、FHIR（Fast Healthcare Interoperability Resources）等，以确保数据格式、数据交换接口的一致性。
+5. **定义数据质量标准**：明确数据的准确性、完整性、一致性、及时性和可访问性等关键指标。
+6. **实施持续的数据质量监测**：通过自动化工具持续监控数据流，及时发现和报告数据质量问题。
+7. **定期的数据质量审计**：组织定期的数据质量审计，评估数据质量水平，并根据审计结果调整数据管理策略。
+8. **建立反馈机制**：为数据用户提供反馈渠道，收集他们对数据质量的意见和建议，不断改进数据质量。
+#### 3. 医生与技术融合的路径与策略
+**问题背景**：智慧医疗系统的成功实施很大程度上依赖于医生对新技术的接受度和使用情况。
+**具体措施**：
+1. **医学教育和持续培训**：医学教育应当随着科技的发展而更新。在医学院的课程中加入AI和数据分析的基础知识，使医学生在职业生涯初期就能建立起对这些技术的初步认识。此外，对于已经执业的医生，提供定期的继续教育和培训项目，特别是针对新出现的技术和工具，可以帮助他们理解并信任这些技术。培训内容应包括技术的工作原理、应用场景、数据安全与隐私保护等，确保医生能够全面了解技术的优势和局限性。
+2. **人机交互设计**：为了提高医生使用技术的意愿，人机交互界面的设计至关重要。设计时应考虑医生的日常操作习惯和工作流程，确保界面直观易用，减少操作复杂度。同时，交互设计也应注重用户体验，例如，提供个性化的用户界面设置，使得医生可以根据个人偏好调整界面布局；使用语音识别等辅助技术，减少医生的输入操作，提高工作效率。
+3. **建立信任体系**：技术的信任度是影响医生采纳意愿的重要因素。可以通过展示真实案例、提供试用机会和建立反馈机制等方式，让医生亲身体验技术带来的益处，逐步建立信任。同时，加强技术的透明度，如清晰地说明数据处理流程、算法的选择依据等，也有助于提高医生的信任感。
+4. **促进角色转变**：随着智慧医疗的发展，医生的角色也在发生变化，从传统的治疗者逐渐向数据分析师过渡。为了支持这一转变，可以鼓励医生参与数据驱动的医疗决策过程，例如，通过参与临床研究项目，学习如何分析和解释医疗数据，以及如何利用这些数据优化治疗方案。此外，医疗机构可以设立跨学科团队，让医生与其他领域的专家（如生物信息学家、数据科学家等）合作，共同探索智慧医疗的新模式。
+5. **政策支持和社会认可**：政府和医疗行业组织可以通过制定相关政策和标准，为智慧医疗的发展提供制度保障。同时，加大对智慧医疗项目的投资，提供科研经费和奖励措施，促进技术创新和应用。社会对智慧医疗的认可和支持也是不可或缺的，通过公众教育和媒体宣传，增强社会对智慧医疗技术的接受度，为医生使用新技术创造良好的外部环境。
+#### 4. 智慧医疗系统的成本效益分析及可持续发展策略
+**问题背景**：虽然智慧医疗系统有望提高医疗服务效率和质量，但其高昂的初期投资和长期运营成本是不可忽视的挑战。
+**具体措施**：
+1. **成本效益比分析**：
+   - **初始投资与长期运营成本**：智慧医疗系统的初期投资主要包括硬件购置（如智能设备、服务器）、软件开发（如电子健康记录系统、数据分析平台）、人员培训等。长期运营成本则包括日常维护、系统升级、数据安全、人员工资等。这些成本可以通过成本-效益分析（Cost-Benefit Analysis, CBA）来量化评估，即计算每项投资带来的收益与成本的比值。
+   - **收益评估**：智慧医疗系统的收益主要体现在提高医疗服务效率、提升医疗质量、降低医疗成本、增强患者满意度等方面。
+2. **政府补贴模式**：
+   - **补贴形式**：政府可以通过多种方式补贴智慧医疗系统，包括直接财政补贴、税收减免、科研资助等。这些补贴可以降低医疗机构的初期投资压力，促进智慧医疗系统的快速普及。
+   - **可持续性**：政府补贴可以确保智慧医疗系统的持续运营，避免因资金短缺导致的项目中断。政府还可以通过制定相关政策，鼓励医疗技术的创新和应用，推动智慧医疗的发展。同时，政府补贴可以确保所有人群，尤其是低收入群体，都能享受到高质量的医疗服务。
+3. **商业化运营模式**：
+   - **资金来源**：商业化运营模式主要依靠市场机制筹集资金，包括用户付费、医疗保险、广告收入等。这种模式可以有效分担政府的财政压力，促进智慧医疗系统的市场化发展。
+   - **可持续性**：市场化运营可以激发企业的创新动力，推动技术和服务的不断升级。通过合理的定价机制和增值服务，智慧医疗系统可以实现长期盈利，确保项目的可持续性。市场竞争可以提高服务质量和效率，促进整个医疗行业的健康发展。
+4. **技术创新与成本降低**：
+   - **技术创新**：利用云计算技术，可以降低硬件投资和维护成本，提高数据处理能力。通过机器学习和深度学习技术，可以实现智能诊断和个性化治疗，提高医疗效率。利用物联网技术，可以实现远程监测和智能设备的互联互通，提高患者管理的便捷性和准确性。
+   - **成本降低**：通过大规模部署智慧医疗系统，可以分摊初期投资成本，降低单个用户的使用成本。制定统一的技术标准和数据规范，可以减少重复建设和维护成本。加强医疗信息化人才的培养，可以降低人员培训和管理成本。
+#### 5. 智慧医疗中的法律、伦理问题及其应对措施
+**问题背景**：随着智慧医疗技术的应用范围不断扩大，相关的法律、伦理问题也日益凸显，如患者数据的合法使用、AI决策的透明度和可解释性等。
+**具体措施**：
+1. **患者数据的保护**：
+   - **现行法律法规**：现行的法律法规如《中华人民共和国网络安全法》、《中华人民共和国个人信息保护法》等，为数据保护提供了一定的法律基础，但随着技术的发展，这些法律在具体实施中仍面临诸多挑战。
+   - **数据使用的边界**：在法律法规中进一步明确数据使用的边界，规定数据在不同情况下如何被合法收集、处理和使用，同时确保患者能够对其个人数据的使用具有知情权和选择权。
+2. **AI决策的透明度和可解释性**：
+   - **透明度要求**：在法律框架中加入有关AI决策透明度和可解释性的规定，确保AI系统能够提供清晰的决策路径和依据，以便患者和医生能够理解AI的决策过程，同时也便于对AI决策的监督和评估。
+3. **医疗决策的责任归属**：
+   - **责任划分**：当AI系统参与医疗决策时，如果出现误诊或治疗失误，责任应如何划分？是AI开发者、医疗机构还是操作人员？这需要法律提供明确的指引，确保在发生医疗事故时，能够合理、公正地追责，保护患者权益的同时也要保障医疗创新者的积极性。
+4. **跨学科合作机制**：
+   - **多学科合作**：建立跨学科的合作机制，促进法律学、伦理学、社会学等领域的专家共同参与智慧医疗伦理准则和法律框架的构建。这种合作不仅有助于确保技术发展与社会伦理相协调，还能促进社会各界对智慧医疗的理解和支持，从而构建一个既保障患者权益又促进技术创新的良性发展环境。
+综上所述，通过构建一套全面的数据隐私与安全保护机制、数据质量评估体系和标准化方案、医生与技术融合的路径与策略、成本效益分析及可持续发展策略，以及应对法律和伦理问题的措施，智慧医疗系统可以有效地保护患者隐私，提高数据质量，促进医生对新技术的接受和使用，实现可持续发展，最终为患者提供更优质、更安全的医疗服务。</t>
+  </si>
+  <si>
+    <t>从生物学的角度来看，智慧医疗系统中的数据质量与标准化问题，可以从生物信息学的视角进行深入分析。生物信息学是一个交叉学科，它利用信息学的方法来处理生物学问题，例如基因组数据的分析和管理。在智慧医疗系统中，我们可以借鉴生物信息学的经验来提高数据质量与标准化水平，进而提升系统的整体效能。
+首先，智慧医疗系统中数据质量存在的问题是多方面的。例如，数据的缺失值问题，这是指数据集中某些字段或记录的信息不完整。在生物信息学中，处理基因序列时也会遇到类似的缺失数据问题，通过使用统计学方法、插补法（如K近邻插补、多重插补等）或者基于机器学习的预测方法来填补缺失值，这些方法同样可以应用于智慧医疗系统中。
+其次，数据的不一致性也是一个重要的问题。这包括数据格式的不统一、命名的不一致等，这在基因组学研究中同样存在。为了解决这一问题，可以借鉴生物信息学中数据标准化的经验，比如采用统一的数据格式标准、建立通用的数据字典和术语库，确保数据在不同医疗信息系统之间的互操作性。
+为建立数据质量评估体系，我们可以引入生物信息学中的数据质量控制（Quality Control, QC）流程。这包括了数据的初步清洗、质量指标的设定和评估、以及数据质量报告的生成等步骤。例如，在测序数据处理中，通过FASTQC等工具对原始数据进行质量评估，识别并过滤掉低质量的读段。在智慧医疗系统中，可以建立类似的自动化的数据质量评估流程，确保数据的准确性和可靠性。
+在标准化方案的建立上，可以参考生物信息学中已有的数据标准，如MIMIC-III这样的临床数据集标准，或者像MAGE-TAB这样的生物实验数据交流格式。通过制定行业的数据标准和指南，促进不同医疗机构之间数据的标准化和共享。
+此外，为了促进不同医疗信息系统之间的互操作性，可以借鉴生物信息学中的数据交换标准，如GFF3用于基因组特征的表示，或HL7 FHIR在医疗健康领域的标准化信息交换框架。利用这些标准可以确保不同系统间的数据格式兼容，支持数据的无缝传输和集成。
+总之，通过借鉴生物信息学的数据处理和标准化策略，智慧医疗系统可以有效地提高数据的质量和标准化水平，进而实现更高效的数据管理和利用，促进医疗健康服务的质量提升。</t>
+  </si>
+  <si>
+    <t>从物理学的角度来看，智慧医疗系统构建数据隐私与安全保护机制，特别是在物理安全和硬件层面的保护措施，可以借鉴多个物理学原理和技术手段来实现。以下是一些可能的途径和方法：
+1. **量子加密技术**：利用量子力学中的纠缠态和不可克隆原理，可以实现信息的绝对安全传输。量子密钥分发（Quantum Key Distribution, QKD）技术已经相对成熟，可以用来在医疗数据传输过程中确保密钥的安全性，从而保护数据不被窃取。例如，通过使用光子的量子态来编码信息，任何试图窃听传输的行为都会不可避免地改变量子态，这种改变可以被接收方检测到，从而立即采取措施来防止信息泄露。
+2. **物理层安全技术**：在数据传输的物理层采用特殊技术来增强安全性。例如，利用多路径散射和时间分散等物理特性，可以设计出更加安全的无线通信系统。通过改变信号的传播路径和时间，可以显著降低被窃听的风险。此外，物理层加密技术，如混沌密码学，也可以用来增强数据传输的安全性。
+3. **硬件安全模块（HSMs）**：在硬件层面集成专门的安全模块，这些模块通常包含安全的密钥存储、加密解密算法的硬件实现等，可以有效防止硬件被逆向工程或物理攻击。例如，使用基于物理不可克隆函数（Physical Unclonable Functions, PUFs）的硬件认证技术，可以确保每个设备都有一个独特的“指纹”，这种指纹是由硬件制造过程中的随机物理特性决定的，几乎无法被复制。
+4. **数据的物理隔离**：对于特别敏感的数据，可以采用物理隔离的方式存储。例如，将某些关键数据存储在独立的、物理上隔离的服务器中，这些服务器可以通过专用网络与主系统连接，以减少被攻击的风险。此外，使用备份磁带等离线存储介质，可以在发生数据泄露时提供额外的保护层。
+5. **物理环境的安全控制**：除了技术手段，物理环境的安全控制也是保护数据安全的重要方面。例如，数据中心可以采用多层安全控制，包括视频监控、门禁系统、警报系统等，确保只有授权人员能够访问存储敏感数据的物理设备。
+6. **温度和电磁环境的监控**：通过对数据中心内的温度和电磁环境进行严格监控，可以防止因环境因素导致的数据损坏或泄露。例如，电磁干扰可能会导致数据传输错误，而高温环境则可能会加速硬件的老化，影响数据的完整性和安全性。
+通过这些从物理层面上的技术和措施，智慧医疗系统可以构建起一个多层次、多维度的数据隐私与安全保护机制，不仅能够有效保护患者个人健康信息的安全，同时也能够满足医疗数据共享的需求，促进医疗健康的数字化转型。</t>
+  </si>
+  <si>
+    <t>智慧医疗系统中医生与技术融合的路径与策略，可以从数学建模的角度出发，通过定量分析来提高医生对新技术的接受度和使用情况。数学工具可以帮助我们理解医生的行为模式、偏好和接受新技术的障碍，进而设计出更有效的教育和培训方案，以及更加人性化的交互界面。下面我们将从几个方面具体探讨这一问题。
+1. **行为建模与预测**
+   - 建立医生对新技术接受度的行为模型。这可以通过收集医生在使用新技术前后的反馈数据，使用概率论和统计学方法来分析医生对新技术的态度变化，识别出影响接受度的关键因素，如年龄、职业阶段、技术熟练度等。
+   - 使用机器学习技术，如决策树、随机森林等，来预测医生对新技术的接受度，从而提前识别出可能的阻力点，为制定针对性的培训计划提供依据。
+2. **教育与培训效果评估**
+   - 设计培训方案的数学模型，以优化培训内容和方式。例如，使用线性规划来确定最有效的培训资源分配方案，确保每位医生都能获得最适合自己的培训。
+   - 通过建立模拟模型，如基于代理的模型（Agent-based Model, ABM），来模拟不同培训策略的效果，以此评估不同培训方法的长期效果，选择最优方案。
+3. **人机交互设计的优化**
+   - 采用人因工程学原理，结合数学建模，优化用户界面设计。例如，通过使用图论中的网络分析方法来优化用户界面的导航结构，确保医生可以直观、高效地访问所需信息。
+   - 应用心理学原理，结合数学模型，研究医生在使用新技术时的用户体验。例如，使用情感计算模型来分析医生在使用新技术时的情感反应，从而调整用户界面设计，减少医生的使用障碍。
+4. **角色转变的支持**
+   - 通过数学建模，支持医生从传统治疗者向数据分析师的转变。例如，使用贝叶斯网络来建模医生在数据分析过程中的决策路径，帮助医生更好地理解数据分析的过程和方法。
+   - 使用优化理论，如多目标优化，来帮助医生在治疗决策中平衡不同目标，如治疗效果、成本控制和患者满意度，提高医生在智慧医疗环境中的决策能力。
+5. **激励机制设计**
+   - 设计激励机制，鼓励医生使用新技术。这可以通过博弈论中的合作博弈模型来分析，找到提高医生参与度的激励策略，例如，通过团队奖励机制来促进医生之间的合作，共同推动新技术的应用。
+   - 使用动态规划方法来优化长期激励计划，确保医生在新技术应用中的持续积极性。
+综上所述，通过数学建模和方法，我们可以从多个维度提高医生对新技术的接受度和使用情况，从而促进智慧医疗系统的成功实施。这些数学工具不仅能够帮助我们理解医生的行为，还能为设计更有效的教育、培训和激励机制提供科学依据，确保智慧医疗技术能够真正惠及医生和患者。</t>
+  </si>
+  <si>
+    <t>从化学角度分析智慧医疗系统中医生与技术融合的路径与策略，特别是在提高医生对新技术接受度和使用情况方面，我们可以从以下几个角度进行探讨：
+1. **材料科学与人机界面的改进**：化学在材料科学中的应用可以显著改善人机交互界面。例如，开发更柔软、更亲肤的材料用于穿戴式医疗设备，不仅能够提高患者的舒适度，也能增强医生对这些设备的信任和接受度。此外，利用纳米技术开发的新型药物递送系统可以减少药物副作用，提高治疗效果，从而增强医生对新技术的信心。
+2. **绿色化学与环保**：随着对环境保护意识的增强，医生和患者越来越倾向于选择那些对环境影响小的医疗方案。化学家可以通过研究绿色合成方法，开发出更加环保的医疗产品，如生物可降解材料，这不仅有助于减少医疗废物，还能提升医生对新技术的接受度。
+3. **化学传感器与诊断技术**：化学在开发高灵敏度、高选择性的生物传感器方面发挥着重要作用。这些传感器可以用于早期诊断和持续监测，为医生提供准确的医疗数据。通过提高诊断技术的准确性和可靠性，可以增强医生对智慧医疗技术的信心，从而促进其使用。
+4. **教育与培训材料的创新**：化学原理可以用来指导制作更直观、更易于理解的教育和培训材料。例如，利用分子模拟软件创建动态的三维模型，帮助医生更直观地理解复杂的化学反应过程，这对于提高医生对新技术的理解和信任非常有帮助。
+5. **个性化医疗的发展**：化学技术在推动个性化医疗方面具有巨大潜力。通过分析个体的基因组信息，化学家可以设计出针对特定疾病亚型的药物，实现更加精准的治疗。这种个性化治疗方法不仅能够提高治疗效果，还能减少不必要的医疗资源浪费，从而提高医生对新技术的接受度。
+6. **促进医生角色的转变**：随着智慧医疗技术的发展，医生的角色正逐渐从传统的治疗者向数据分析师转变。化学技术，特别是在数据分析和机器学习方面的应用，可以帮助医生更好地理解复杂的医学数据，从而做出更为精准的诊断和治疗决策。这种转变需要医生接受新的培训，学习如何利用新技术辅助其工作。
+综上所述，化学在智慧医疗系统中扮演着重要角色，不仅能够通过材料科学、环保材料、化学传感器、教育材料创新、个性化医疗等方面提高医生对新技术的接受度和使用情况，还能促进医生角色的转变，推动智慧医疗系统的持续发展。</t>
+  </si>
+  <si>
+    <t>从地理学角度分析智慧医疗系统中的成本效益分析及可持续发展策略，我们需要将空间分析、地理信息系统（GIS）以及遥感技术等地理学方法应用到医疗资源的优化配置和管理中。以下是具体的分析和策略建议：
+1. **成本效益分析的空间视角**：
+   - **空间分布评估**：利用GIS和遥感技术，分析当前医疗资源的空间分布情况，包括医疗设施、医护人员、医疗设备等。通过绘制医疗资源分布图，可以直观地看到资源密集区和资源匮乏区，为优化配置提供依据。
+   - **需求与供给匹配分析**：结合人口分布、疾病发病率等数据，通过空间分析模型，评估医疗资源的需求与供给情况，确保资源分配更加合理。例如，可以通过人口密度图与医疗设施布点图叠加，识别医疗资源供需不平衡区域。
+   - **成本效益模型**：利用地理学方法，构建医疗资源配置的成本效益模型，分析不同配置方案下的成本和效益，找出最优解。例如，通过最小生成树算法优化医疗设施的布局，以最低的成本实现最大范围的覆盖。
+2. **可持续发展策略**：
+   - **政府补贴的地理定位**：政府可以通过地理学方法，精准定位需要补贴的地区和人群，提高补贴效率。例如，针对偏远地区和低收入人群提供定向补贴，减少医疗资源的地域不平等。
+   - **商业化运营的空间优化**：利用地理学方法，优化医疗资源的商业化运营策略。例如，通过分析交通流量、商业活动等数据，选择最优的医疗设施布点位置，提高就诊便利性和运营效率。
+   - **技术创新的空间应用**：借助GIS和大数据技术，推动医疗技术的创新，降低成本。例如，通过远程医疗服务，减少患者到医院的次数，降低交通成本；利用智能预测模型，优化药品库存管理，减少浪费。
+3. **地理学方法在优化医疗资源中的应用**：
+   - **动态监测与评估**：利用遥感和GIS技术，动态监测医疗资源的使用情况，及时调整资源配置。例如，通过实时监控患者就诊数据，动态调整医护人员的调度，提高医疗服务效率。
+   - **多尺度分析**：从国家、省、市、县等多个尺度进行分析，确保各级医疗资源的协调配置。例如，国家层面可以优化医疗资源配置的整体布局，省级层面可以细化资源配置，市级和县级层面可以具体实施资源配置计划。
+   - **跨学科合作**：地理学与经济学、管理学、公共卫生等学科合作，共同研究智慧医疗系统的优化方案。例如，结合经济学的成本-效益分析方法和地理学的空间分析方法，提出更科学的资源配置策略。
+综上所述，通过地理学方法，可以有效地优化智慧医疗系统的资源配置，降低运营成本，提高服务效率和质量，实现智慧医疗系统的可持续发展。</t>
+  </si>
+  <si>
+    <t>### 智慧医疗系统的综合分析与解决方案
+#### 1. 数据隐私与安全保护机制的构建
+**问题背景**：智慧医疗系统中数据量的剧增，使得数据隐私与安全成为了一个亟待解决的问题。需要从计算机科学、信息安全、医疗法律等多个领域探讨如何确保患者个人健康信息的安全。
+**具体措施**：
+- **量子加密技术**（物理学）：利用量子力学中的纠缠态和不可克隆原理，实现信息的绝对安全传输。量子密钥分发（QKD）技术可以确保密钥的安全性，防止数据被窃取。
+- **物理层安全技术**（物理学）：在数据传输的物理层采用多路径散射和时间分散等技术，设计更加安全的无线通信系统。物理层加密技术如混沌密码学也可以增强数据传输的安全性。
+- **硬件安全模块（HSMs）**（物理学）：在硬件层面集成专门的安全模块，包含安全的密钥存储、加密解密算法的硬件实现等，防止硬件被逆向工程或物理攻击。
+- **数据的物理隔离**（物理学）：将敏感数据存储在物理上隔离的服务器中，通过专用网络与主系统连接，减少被攻击的风险。
+- **物理环境的安全控制**（物理学）：采用多层安全控制，如视频监控、门禁系统、警报系统等，确保只有授权人员能够访问存储敏感数据的物理设备。
+- **温度和电磁环境的监控**（物理学）：通过严格监控数据中心内的温度和电磁环境，防止因环境因素导致的数据损坏或泄露。
+#### 2. 数据质量与标准化挑战及其解决方案
+**问题背景**：数据质量直接影响智慧医疗系统的效能，而数据标准化则是实现跨机构、跨系统数据共享的基础。
+**具体措施**：
+- **缺失值处理**（生物学）：使用统计学方法、插补法（如K近邻插补、多重插补等）或基于机器学习的预测方法来填补缺失值。
+- **不一致性解决**（生物学）：采用统一的数据格式标准、建立通用的数据字典和术语库，确保数据在不同医疗信息系统之间的互操作性。
+- **数据质量评估体系**（生物学）：引入数据质量控制（QC）流程，包括数据的初步清洗、质量指标的设定和评估、数据质量报告的生成。
+- **标准化方案的建立**（生物学）：参考生物信息学中的数据标准，如MIMIC-III或MAGE-TAB，制定行业的数据标准和指南，促进数据的标准化和共享。
+- **数据交换标准**（生物学）：借鉴生物信息学中的数据交换标准，如GFF3或HL7 FHIR，确保不同系统间的数据格式兼容，支持数据的无缝传输和集成。
+#### 3. 医生与技术融合的路径与策略
+**问题背景**：智慧医疗系统的成功实施很大程度上依赖于医生对新技术的接受度和使用情况。
+**具体措施**：
+- **行为建模与预测**（数学）：建立医生对新技术接受度的行为模型，使用概率论和统计学方法分析医生对新技术的态度变化，识别影响接受度的关键因素。
+- **教育与培训效果评估**（数学）：设计培训方案的数学模型，优化培训内容和方式。使用线性规划确定最有效的培训资源分配方案，确保每位医生都能获得最适合自己的培训。
+- **人机交互设计的优化**（数学）：采用人因工程学原理，结合数学建模，优化用户界面设计。使用图论中的网络分析方法优化用户界面的导航结构，确保医生可以直观、高效地访问所需信息。
+- **角色转变的支持**（数学）：通过数学建模支持医生从传统治疗者向数据分析师的转变，使用贝叶斯网络建模医生在数据分析过程中的决策路径，帮助医生更好地理解数据分析的过程和方法。
+- **激励机制设计**（数学）：设计激励机制，鼓励医生使用新技术。通过博弈论中的合作博弈模型分析，找到提高医生参与度的激励策略，如团队奖励机制。
+#### 4. 智慧医疗系统的成本效益分析及可持续发展策略
+**问题背景**：虽然智慧医疗系统有望提高医疗服务效率和质量，但其高昂的初期投资和长期运营成本是不可忽视的挑战。
+**具体措施**：
+- **空间分布评估**（地理学）：利用GIS和遥感技术，分析当前医疗资源的空间分布情况，通过绘制医疗资源分布图，识别资源密集区和资源匮乏区，为优化配置提供依据。
+- **需求与供给匹配分析**（地理学）：结合人口分布、疾病发病率等数据，通过空间分析模型评估医疗资源的需求与供给情况，确保资源分配更加合理。
+- **成本效益模型**（地理学）：利用地理学方法构建医疗资源配置的成本效益模型，分析不同配置方案下的成本和效益，找出最优解。
+- **政府补贴的地理定位**（地理学）：政府通过地理学方法，精准定位需要补贴的地区和人群，提高补贴效率，减少医疗资源的地域不平等。
+- **商业化运营的空间优化**（地理学）：利用地理学方法优化医疗资源的商业化运营策略，通过分析交通流量、商业活动等数据，选择最优的医疗设施布点位置，提高就诊便利性和运营效率。
+- **技术创新的空间应用**（地理学）：借助GIS和大数据技术，推动医疗技术的创新，降低成本，如通过远程医疗服务减少患者到医院的次数，降低交通成本。
+#### 5. 智慧医疗中的法律、伦理问题及其应对措施
+**问题背景**：随着智慧医疗技术的应用范围不断扩大，相关的法律、伦理问题也日益凸显，如患者数据的合法使用、AI决策的透明度和可解释性等。
+**具体措施**：
+- **现行法律法规**（法律学）：现行法律法规如《中华人民共和国网络安全法》和《中华人民共和国个人信息保护法》为数据保护提供了一定的法律基础，但需要进一步明确数据使用的边界，确保患者对其个人数据的使用具有知情权和选择权。
+- **AI决策的透明度和可解释性**（伦理学）：在法律框架中加入有关AI决策透明度和可解释性的规定，确保AI系统能够提供清晰的决策路径和依据，便于患者和医生理解AI的决策过程。
+- **医疗决策的责任归属**（法律学）：当AI系统参与医疗决策时，明确责任划分，确保在发生医疗事故时能够合理、公正地追责，保护患者权益的同时也要保障医疗创新者的积极性。
+- **跨学科合作机制**（社会学）：建立跨学科的合作机制，促进法律学、伦理学、社会学等领域的专家共同参与智慧医疗伦理准则和法律框架的构建，确保技术发展与社会伦理相协调。
+综上所述，通过构建一套全面的数据隐私与安全保护机制、数据质量评估体系和标准化方案、医生与技术融合的路径与策略、成本效益分析及可持续发展策略，以及应对法律和伦理问题的措施，智慧医疗系统可以有效地保护患者隐私，提高数据质量，促进医生对新技术的接受和使用，实现可持续发展，最终为患者提供更优质、更安全的医疗服务。</t>
+  </si>
+  <si>
+    <t>**项目申请书**
+**摘要**
+随着信息技术的迅速发展，智慧医疗作为一种新兴的服务模式，正逐渐改变着传统的医疗保健方式。本项目旨在针对智慧医疗系统面临的数据隐私安全保护、数据质量与标准化、医生与技术融合、成本效益分析及可持续发展、以及法律伦理问题等五大挑战，提出系统性、可操作性的科学解决方案。通过跨学科的研究方法和技术创新，本项目致力于构建一个既保障患者隐私权益，又能高效利用医疗资源的智慧医疗生态系统。
+**研究背景和意义**
+智慧医疗系统通过集成先进的信息技术，如人工智能、大数据分析等，旨在提高医疗服务的质量和效率，降低医疗成本，优化资源配置。然而，随着智慧医疗技术的广泛应用，数据隐私安全、数据质量与标准、医生与技术的融合、成本效益与可持续发展、以及法律伦理等问题日益凸显，成为制约智慧医疗进一步发展的瓶颈。解决这些问题不仅对于提升医疗服务质量具有重要意义，也有助于构建更加公平、高效的医疗保健体系，促进社会和谐与进步。
+**研究内容**
+1. **数据隐私与安全保护机制的构建**：研究加密技术、访问控制机制、匿名化处理技术等，探讨在满足数据共享需求的同时如何有效保护患者个人健康信息的安全，确保患者的隐私权益不受侵害。
+2. **数据质量与标准化挑战及其解决方案**：分析当前数据质量存在的问题，探讨建立数据质量评估体系和标准化方案，促进不同医疗信息系统之间的互操作性，为智慧医疗的应用提供可靠的数据基础。
+3. **医生与技术融合的路径与策略**：研究如何通过教育、培训等方式提高医生对AI等先进技术的认知和信任，设计更加人性化的交互界面以降低医生使用技术的门槛，促进医生从传统的治疗者向数据分析师的转型。
+4. **智慧医疗系统的成本效益分析及可持续发展策略**：从经济学角度出发，分析智慧医疗系统在不同应用情景下的成本效益比，探讨政府补贴、商业化运营等模式下的可持续发展策略，通过技术创新降低整体成本。
+5. **智慧医疗中的法律、伦理问题及其应对措施**：探讨现行法律法规是否足以应对智慧医疗带来的新挑战，研究如何建立一套既保障患者权益又促进技术创新的伦理准则和法律框架。
+**拟解决的科学问题**
+- 如何在数据共享与隐私保护之间找到平衡点？
+- 如何建立一套高效的数据质量评估与标准化体系，促进不同医疗信息系统之间的数据交换？
+- 如何提高医生对新技术的接受度，促进医生角色的转型？
+- 智慧医疗系统的经济可行性和可持续发展的关键因素是什么？
+- 面对智慧医疗带来的法律伦理挑战，应如何构建相应的法律框架和伦理准则？
+**拟提出的技术路线**
+1. **数据隐私与安全保护**：
+   - 应用高级加密技术，如同态加密、零知识证明等，确保数据在传输和存储过程中的安全。
+   - 开发智能访问控制系统，利用身份认证、权限管理等技术，确保只有授权用户能够访问敏感数据。
+   - 实施数据匿名化处理，采用数据脱敏、数据混淆等方法，减少数据泄露风险。
+2. **数据质量与标准化**：
+   - 建立数据质量评估模型，通过数据清洗、数据验证等手段，提高数据的完整性、一致性和准确性。
+   - 推动数据标准化进程，参与国家标准和行业标准的制定，促进数据格式的统一。
+   - 采用数据交换标准，如HL7、FHIR等，促进不同医疗信息系统之间的数据共享。
+3. **医生与技术融合**：
+   - 设计培训课程，加强医生的技术培训，提高医生对AI等先进技术的理解和应用能力。
+   - 开发用户友好的交互界面，降低医生使用新技术的门槛，提高用户体验。
+   - 促进医生角色转变，鼓励医生参与数据分析，提高医疗服务的个性化和精准度。
+4. **成本效益分析及可持续发展**：
+   - 进行成本效益分析，评估智慧医疗系统在不同应用场景下的经济效益和社会效益。
+   - 探索多元化的商业模式，如政府补贴、商业保险、公益项目等，确保智慧医疗系统的持续运营。
+   - 通过技术创新，如云计算、边缘计算等，降低智慧医疗系统的建设和维护成本。
+5. **法律伦理问题**：
+   - 研究现行法律法规，评估其在智慧医疗领域的适用性和局限性。
+   - 建立伦理委员会，制定伦理准则，指导智慧医疗项目的设计和实施。
+   - 与法律专家合作，推动相关法律法规的完善，确保技术发展的合法性和伦理性。
+**预期成果**
+- **技术成果**：开发出一套高效的数据隐私保护机制，建立数据质量评估与标准化体系，设计出用户友好的医生与技术融合界面，提出智慧医疗系统的经济可行性和可持续发展策略，构建一套适应智慧医疗发展的法律伦理框架。
+- **应用成果**：通过在医疗机构的实际应用，验证技术成果的有效性和可行性，促进智慧医疗系统的广泛应用，提高医疗服务的质量和效率。
+- **社会影响**：推动智慧医疗的发展，为患者提供更加便捷、高效的医疗服务，促进医疗资源的合理配置，提高公众对智慧医疗的认知度和接受度。
+本项目将为智慧医疗领域的发展提供坚实的理论基础和技术支持，为构建公平、高效、可持续的医疗保健体系做出贡献。</t>
   </si>
 </sst>
 </file>
@@ -879,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -910,7 +844,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -918,27 +852,27 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -952,7 +886,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -966,7 +900,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -980,7 +914,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -988,13 +922,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1002,27 +936,27 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1036,7 +970,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1050,7 +984,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1058,13 +992,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1072,13 +1006,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1086,13 +1020,13 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1106,7 +1040,7 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1114,13 +1048,13 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1128,69 +1062,13 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
